--- a/Documentation/Testing/CinemaSea_Testing_v.0.3.xlsx
+++ b/Documentation/Testing/CinemaSea_Testing_v.0.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="CRUD" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,16 @@
     <sheet name="Možnosti selhání" sheetId="7" r:id="rId7"/>
     <sheet name="Určení rizik" sheetId="9" r:id="rId8"/>
     <sheet name="Test levels" sheetId="8" r:id="rId9"/>
+    <sheet name="Testovací scénáře" sheetId="11" r:id="rId10"/>
+    <sheet name="Test cases" sheetId="12" r:id="rId11"/>
+    <sheet name="Report chyby" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="219">
   <si>
     <t>Vytvořit film</t>
   </si>
@@ -198,9 +201,6 @@
     <t>Při nahrávání dat z databáze bude systém zobrazovat stav procesu</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>Sjednocené test goals</t>
   </si>
   <si>
@@ -508,6 +508,180 @@
   </si>
   <si>
     <t>Typy testů</t>
+  </si>
+  <si>
+    <t>Název</t>
+  </si>
+  <si>
+    <t>Test. Scénář</t>
+  </si>
+  <si>
+    <t>Popis</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>loffldav</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>SQL injection hole</t>
+  </si>
+  <si>
+    <t>Systém neznemožňuje zadání speciálních znaků (např. ",' apod.) do vstupních polí, hrozí napadení databáze</t>
+  </si>
+  <si>
+    <t>Wrong password checking</t>
+  </si>
+  <si>
+    <t>Systém špatně předává a kontroluje hesla při registraci</t>
+  </si>
+  <si>
+    <t>szelemar</t>
+  </si>
+  <si>
+    <t>checkPassword_emptyBoth_test</t>
+  </si>
+  <si>
+    <t>Výsledek</t>
+  </si>
+  <si>
+    <t>Testuje, zda-li</t>
+  </si>
+  <si>
+    <t>Očekávaný výsledek</t>
+  </si>
+  <si>
+    <t>You need to choose your password!</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>checkPassword_emptyFirst_test</t>
+  </si>
+  <si>
+    <t>checkPassword_emptySecond_test</t>
+  </si>
+  <si>
+    <t>checkPassword_bothDifferent_test</t>
+  </si>
+  <si>
+    <t>checkPassword_shorterThan8_test</t>
+  </si>
+  <si>
+    <t>Password too short! Minimum: 8, Given: 2</t>
+  </si>
+  <si>
+    <t>You need to re-enter your password to proceed.</t>
+  </si>
+  <si>
+    <t>Testuje, zda-li je možné vytvořit prázdné heslo</t>
+  </si>
+  <si>
+    <t>Testuje, zda-li je možné vytvořit heslo bez správného potvrzení</t>
+  </si>
+  <si>
+    <t>Testuje, zda-li je možné vytvořit heslo kratší než minimální počet znaků</t>
+  </si>
+  <si>
+    <t>checkPassword_bothTheSame_test</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Testuje, zda-li je možné vytvořit validní heslo</t>
+  </si>
+  <si>
+    <t>checkMovie_Create</t>
+  </si>
+  <si>
+    <t>checkMovie_Update</t>
+  </si>
+  <si>
+    <t>Testuje, zda-li správně funguje zapisování do tabulky filmů - vytváření</t>
+  </si>
+  <si>
+    <t>Testuje, zda-li správně funguje zapisování do tabulky filmů - editace</t>
+  </si>
+  <si>
+    <t>Testuje, zda-li správně funguje zapisování do tabulky herců - vytváření</t>
+  </si>
+  <si>
+    <t>Testuje, zda-li správně funguje zapisování do tabulky herců - editace</t>
+  </si>
+  <si>
+    <t>Testuje, zda-li správně funguje zapisování do tabulky uživatelů - vytváření</t>
+  </si>
+  <si>
+    <t>checkUsername_empty_test</t>
+  </si>
+  <si>
+    <t>checkUsername_nonExistUser_test</t>
+  </si>
+  <si>
+    <t>checkUsername_nameAlreadyInDatabse_test</t>
+  </si>
+  <si>
+    <t>checkUsername_nonSenseText_test</t>
+  </si>
+  <si>
+    <t>Not valid</t>
+  </si>
+  <si>
+    <t>Testuje, zda-li je možné vytvořit uživatele bez pseudonymu</t>
+  </si>
+  <si>
+    <t>Username already taken!</t>
+  </si>
+  <si>
+    <t>You need to choose your username!</t>
+  </si>
+  <si>
+    <t>movie_CloneFunc_copyObjectOK_test</t>
+  </si>
+  <si>
+    <t>movie_isEmptyFunc_askForNonSenseEmpty_test</t>
+  </si>
+  <si>
+    <t>movie_isEmptyFunc_actorsEmpty_test</t>
+  </si>
+  <si>
+    <t>movie_isEmptyFunc_actorsFull_test</t>
+  </si>
+  <si>
+    <t>movie_isEmptyFunc_scenaristsEmpty_test</t>
+  </si>
+  <si>
+    <t>movie_isEmptyFunc_scenaristsFull_test</t>
+  </si>
+  <si>
+    <t>movie_isEmptyFunc_directorsEmpty_test</t>
+  </si>
+  <si>
+    <t>movie_isEmptyFunc_directorsFull_test</t>
+  </si>
+  <si>
+    <t>movieDialog_findPeopleFunc_EmptyArrays_test</t>
+  </si>
+  <si>
+    <t>movieDialog_findPeopleFunc_firstEmpty_test</t>
+  </si>
+  <si>
+    <t>movieDialog_findPeopleFunc_secondEmpty_test</t>
+  </si>
+  <si>
+    <t>movieDialog_findPeopleFunc_ArraysSameData_test</t>
+  </si>
+  <si>
+    <t>movieDialog_findPeopleFunc_firstArrLarger_andSwap_test</t>
+  </si>
+  <si>
+    <t>movieDialog_findPeopleFunc_arrsDifferentData_test</t>
   </si>
 </sst>
 </file>
@@ -795,7 +969,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -865,33 +1039,16 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -900,6 +1057,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -954,18 +1127,101 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1277,7 +1533,7 @@
   <dimension ref="B3:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="B3" sqref="B3:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,379 +1544,384 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="73" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="G3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="73" t="s">
+      <c r="H3" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="73" t="s">
+      <c r="I3" s="42" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="74">
+      <c r="B4" s="43">
         <v>1</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="76" t="s">
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
     </row>
     <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="74">
+      <c r="B5" s="43">
         <v>2</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
     </row>
     <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="74">
+      <c r="B6" s="43">
         <v>3</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76" t="s">
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="74">
+      <c r="B7" s="43">
         <v>4</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="76"/>
+      <c r="I7" s="44"/>
     </row>
     <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="74">
+      <c r="B8" s="43">
         <v>5</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="76" t="s">
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="76" t="s">
+      <c r="H8" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="44" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="74">
+      <c r="B9" s="43">
         <v>6</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="76" t="s">
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
     </row>
     <row r="10" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="74">
+      <c r="B10" s="43">
         <v>7</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="76" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
     </row>
     <row r="11" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="74">
+      <c r="B11" s="43">
         <v>8</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="76" t="s">
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
     </row>
     <row r="12" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="74">
+      <c r="B12" s="43">
         <v>9</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="76" t="s">
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="76" t="s">
+      <c r="G12" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="76" t="s">
+      <c r="H12" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="76" t="s">
+      <c r="I12" s="44" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="74">
+      <c r="B13" s="43">
         <v>10</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="76" t="s">
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="76" t="s">
+      <c r="G13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="76" t="s">
+      <c r="H13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="76" t="s">
+      <c r="I13" s="44" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="74">
+      <c r="B14" s="43">
         <v>11</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="76" t="s">
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
     </row>
     <row r="15" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="74">
+      <c r="B15" s="43">
         <v>12</v>
       </c>
-      <c r="C15" s="75" t="s">
+      <c r="C15" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76" t="s">
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="76" t="s">
+      <c r="H15" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="76" t="s">
+      <c r="I15" s="44" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="74">
+      <c r="B16" s="43">
         <v>13</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76" t="s">
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="76" t="s">
+      <c r="H16" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="76" t="s">
+      <c r="I16" s="44" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="74">
+      <c r="B17" s="43">
         <v>14</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="76" t="s">
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
     </row>
     <row r="18" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="74">
+      <c r="B18" s="43">
         <v>15</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="76" t="s">
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="76" t="s">
+      <c r="G18" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="76" t="s">
+      <c r="H18" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="76" t="s">
+      <c r="I18" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="74">
+      <c r="B19" s="43">
         <v>16</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="76" t="s">
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
     </row>
     <row r="20" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="74">
+      <c r="B20" s="43">
         <v>17</v>
       </c>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76" t="s">
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="76"/>
+      <c r="I20" s="44"/>
     </row>
     <row r="21" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="74">
+      <c r="B21" s="43">
         <v>18</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76" t="s">
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
     </row>
     <row r="22" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="74">
+      <c r="B22" s="43">
         <v>19</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76" t="s">
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="74">
+      <c r="B23" s="43">
         <v>20</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="76" t="s">
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C23:E23"/>
@@ -1677,14 +1938,1204 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:I93"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="76"/>
+    <col min="4" max="4" width="4.42578125" style="76" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" style="84" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45" style="84" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.42578125" style="76" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="76"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D3" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D4" s="79">
+        <v>111</v>
+      </c>
+      <c r="E4" s="93" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4" s="79" t="s">
+        <v>176</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D6" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="79">
+        <v>112</v>
+      </c>
+      <c r="E7" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="79" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D9" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="79">
+        <v>113</v>
+      </c>
+      <c r="E10" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D12" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D13" s="79">
+        <v>114</v>
+      </c>
+      <c r="E13" s="93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="93" t="s">
+        <v>185</v>
+      </c>
+      <c r="G13" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D15" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D16" s="79">
+        <v>115</v>
+      </c>
+      <c r="E16" s="93" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="93" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D18" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D19" s="79">
+        <v>116</v>
+      </c>
+      <c r="E19" s="93" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" s="93" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D21" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D22" s="79">
+        <v>121</v>
+      </c>
+      <c r="E22" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" s="93" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" s="79" t="s">
+        <v>204</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D24" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="79">
+        <v>122</v>
+      </c>
+      <c r="E25" s="93" t="s">
+        <v>198</v>
+      </c>
+      <c r="F25" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D27" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D28" s="79">
+        <v>123</v>
+      </c>
+      <c r="E28" s="93" t="s">
+        <v>199</v>
+      </c>
+      <c r="F28" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="79" t="s">
+        <v>203</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D30" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="G30" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H30" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D31" s="79">
+        <v>124</v>
+      </c>
+      <c r="E31" s="93" t="s">
+        <v>200</v>
+      </c>
+      <c r="F31" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="G31" s="79" t="s">
+        <v>201</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D32" s="89"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="33"/>
+    </row>
+    <row r="33" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D33" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F33" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H33" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D34" s="79">
+        <v>131</v>
+      </c>
+      <c r="E34" s="93" t="s">
+        <v>205</v>
+      </c>
+      <c r="F34" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="G34" s="79" t="s">
+        <v>176</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D36" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H36" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D37" s="79">
+        <v>132</v>
+      </c>
+      <c r="E37" s="93" t="s">
+        <v>206</v>
+      </c>
+      <c r="F37" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="G37" s="79" t="s">
+        <v>176</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D39" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F39" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H39" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D40" s="79">
+        <v>133</v>
+      </c>
+      <c r="E40" s="93" t="s">
+        <v>207</v>
+      </c>
+      <c r="F40" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="G40" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D42" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F42" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="G42" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H42" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D43" s="79">
+        <v>134</v>
+      </c>
+      <c r="E43" s="93" t="s">
+        <v>208</v>
+      </c>
+      <c r="F43" s="93" t="s">
+        <v>185</v>
+      </c>
+      <c r="G43" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D45" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F45" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="G45" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H45" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D46" s="79">
+        <v>135</v>
+      </c>
+      <c r="E46" s="93" t="s">
+        <v>209</v>
+      </c>
+      <c r="F46" s="93" t="s">
+        <v>186</v>
+      </c>
+      <c r="G46" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D48" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F48" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="G48" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H48" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D49" s="79">
+        <v>136</v>
+      </c>
+      <c r="E49" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="F49" s="93" t="s">
+        <v>189</v>
+      </c>
+      <c r="G49" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="H49" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D50" s="89"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="95"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="33"/>
+    </row>
+    <row r="51" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D51" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F51" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="G51" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H51" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D52" s="79">
+        <v>137</v>
+      </c>
+      <c r="E52" s="93" t="s">
+        <v>211</v>
+      </c>
+      <c r="F52" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="G52" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D53" s="89"/>
+      <c r="E53" s="95"/>
+      <c r="F53" s="95"/>
+      <c r="G53" s="89"/>
+      <c r="H53" s="33"/>
+    </row>
+    <row r="54" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D54" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F54" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="G54" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H54" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D55" s="79">
+        <v>138</v>
+      </c>
+      <c r="E55" s="93" t="s">
+        <v>212</v>
+      </c>
+      <c r="F55" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="G55" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="H55" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D56" s="89"/>
+      <c r="E56" s="95"/>
+      <c r="F56" s="95"/>
+      <c r="G56" s="89"/>
+      <c r="H56" s="33"/>
+    </row>
+    <row r="57" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D57" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F57" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="G57" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H57" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D58" s="79">
+        <v>141</v>
+      </c>
+      <c r="E58" s="93" t="s">
+        <v>213</v>
+      </c>
+      <c r="F58" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="G58" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="H58" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D59" s="89"/>
+      <c r="E59" s="95"/>
+      <c r="F59" s="95"/>
+      <c r="G59" s="89"/>
+      <c r="H59" s="33"/>
+    </row>
+    <row r="60" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D60" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F60" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="G60" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H60" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D61" s="79">
+        <v>142</v>
+      </c>
+      <c r="E61" s="93" t="s">
+        <v>214</v>
+      </c>
+      <c r="F61" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="G61" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="H61" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D62" s="89"/>
+      <c r="E62" s="95"/>
+      <c r="F62" s="95"/>
+      <c r="G62" s="89"/>
+      <c r="H62" s="33"/>
+    </row>
+    <row r="63" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D63" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F63" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="G63" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H63" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D64" s="79">
+        <v>143</v>
+      </c>
+      <c r="E64" s="93" t="s">
+        <v>215</v>
+      </c>
+      <c r="F64" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="G64" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="H64" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D65" s="89"/>
+      <c r="E65" s="95"/>
+      <c r="F65" s="95"/>
+      <c r="G65" s="89"/>
+      <c r="H65" s="33"/>
+    </row>
+    <row r="66" spans="4:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="D66" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F66" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="G66" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H66" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="I66" s="96"/>
+    </row>
+    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D67" s="79">
+        <v>144</v>
+      </c>
+      <c r="E67" s="93" t="s">
+        <v>216</v>
+      </c>
+      <c r="F67" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="G67" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="H67" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="I67" s="96"/>
+    </row>
+    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D68" s="89"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="95"/>
+      <c r="G68" s="81"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="96"/>
+    </row>
+    <row r="69" spans="4:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="D69" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E69" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F69" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="G69" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H69" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="I69" s="96"/>
+    </row>
+    <row r="70" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D70" s="79">
+        <v>145</v>
+      </c>
+      <c r="E70" s="93" t="s">
+        <v>217</v>
+      </c>
+      <c r="F70" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="G70" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="H70" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="I70" s="96"/>
+    </row>
+    <row r="71" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D71" s="89"/>
+      <c r="E71" s="95"/>
+      <c r="F71" s="95"/>
+      <c r="G71" s="81"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="96"/>
+    </row>
+    <row r="72" spans="4:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="D72" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E72" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F72" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="G72" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H72" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="I72" s="96"/>
+    </row>
+    <row r="73" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D73" s="79">
+        <v>146</v>
+      </c>
+      <c r="E73" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="F73" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="G73" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="H73" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="I73" s="96"/>
+    </row>
+    <row r="75" spans="4:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="D75" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F75" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="G75" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H75" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="4:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D76" s="79">
+        <v>211</v>
+      </c>
+      <c r="E76" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="F76" s="93" t="s">
+        <v>192</v>
+      </c>
+      <c r="G76" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="H76" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="4:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="D78" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E78" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F78" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="G78" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H78" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" spans="4:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D79" s="79">
+        <v>212</v>
+      </c>
+      <c r="E79" s="93" t="s">
+        <v>191</v>
+      </c>
+      <c r="F79" s="93" t="s">
+        <v>193</v>
+      </c>
+      <c r="G79" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="H79" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D81" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E81" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F81" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="G81" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H81" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D82" s="79">
+        <v>213</v>
+      </c>
+      <c r="E82" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="F82" s="93" t="s">
+        <v>194</v>
+      </c>
+      <c r="G82" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="H82" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D84" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F84" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="G84" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H84" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D85" s="79">
+        <v>214</v>
+      </c>
+      <c r="E85" s="93" t="s">
+        <v>191</v>
+      </c>
+      <c r="F85" s="93" t="s">
+        <v>195</v>
+      </c>
+      <c r="G85" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="H85" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D87" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F87" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="G87" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H87" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D88" s="79">
+        <v>215</v>
+      </c>
+      <c r="E88" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="F88" s="93" t="s">
+        <v>196</v>
+      </c>
+      <c r="G88" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="H88" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F89" s="76"/>
+      <c r="H89" s="76"/>
+    </row>
+    <row r="90" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F90" s="76"/>
+      <c r="H90" s="76"/>
+    </row>
+    <row r="91" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F91" s="76"/>
+      <c r="H91" s="76"/>
+    </row>
+    <row r="92" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F92" s="76"/>
+      <c r="H92" s="76"/>
+    </row>
+    <row r="93" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F93" s="76"/>
+      <c r="H93" s="76"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="65">
+        <v>1</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="65">
+        <v>123</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="67">
+        <v>42503</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="16">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="16">
+        <v>114</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="67">
+        <v>42504</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1693,7 +3144,7 @@
   <dimension ref="B3:F22"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1725,65 +3176,65 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="54" t="s">
-        <v>77</v>
+      <c r="B4" s="47" t="s">
+        <v>76</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="54"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="54"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="54"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1794,50 +3245,50 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="55" t="s">
-        <v>78</v>
+      <c r="B9" s="48" t="s">
+        <v>77</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="55"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="55"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1849,19 +3300,19 @@
     </row>
     <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1872,125 +3323,125 @@
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="55" t="s">
-        <v>60</v>
+      <c r="B15" s="48" t="s">
+        <v>59</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="55"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="55"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="55"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="55"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="55"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="55"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="55"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2008,7 +3459,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2019,7 +3472,7 @@
   <sheetData>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>37</v>
@@ -2107,7 +3560,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2120,21 +3575,21 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
     </row>
     <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="56"/>
-      <c r="C5" s="57"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="8">
         <v>1</v>
       </c>
@@ -2365,7 +3820,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2379,7 +3836,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2392,7 +3849,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>39</v>
@@ -2400,7 +3857,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>40</v>
@@ -2408,7 +3865,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>49</v>
@@ -2416,7 +3873,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>50</v>
@@ -2432,7 +3889,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>52</v>
@@ -2440,7 +3897,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>55</v>
@@ -2448,7 +3905,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>53</v>
@@ -2464,7 +3921,7 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>57</v>
@@ -2475,12 +3932,12 @@
         <v>4</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>41</v>
@@ -2488,7 +3945,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>42</v>
@@ -2496,7 +3953,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>43</v>
@@ -2504,7 +3961,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>44</v>
@@ -2512,7 +3969,7 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>45</v>
@@ -2520,7 +3977,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>46</v>
@@ -2528,7 +3985,7 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>47</v>
@@ -2536,7 +3993,7 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>48</v>
@@ -2551,7 +4008,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2566,71 +4025,71 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="59" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
+      <c r="C3" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" s="20" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>103</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>108</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>109</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -2641,200 +4100,200 @@
       <c r="C11" s="22"/>
     </row>
     <row r="12" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
+      <c r="C12" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C13" s="20" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>103</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C14" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="21" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="61"/>
+      <c r="C21" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="53"/>
+      <c r="E21" s="54"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="20" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="20" t="s">
         <v>103</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D25" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="21" t="s">
         <v>108</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>109</v>
       </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E27" s="4"/>
     </row>
     <row r="30" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="61"/>
+      <c r="C30" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="53"/>
+      <c r="E30" s="54"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="20" t="s">
         <v>33</v>
       </c>
       <c r="D31" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="20" t="s">
         <v>103</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="21" t="s">
         <v>108</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>109</v>
       </c>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2852,7 +4311,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2873,12 +4334,12 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
-      <c r="B3" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
+      <c r="B3" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
     </row>
@@ -2891,10 +4352,10 @@
         <v>32</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
@@ -2902,16 +4363,16 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
       <c r="B5" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
@@ -2919,16 +4380,16 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
       <c r="B6" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
@@ -2936,16 +4397,16 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
@@ -2953,16 +4414,16 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
@@ -2978,12 +4439,12 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
-      <c r="B10" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
+      <c r="B10" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
     </row>
@@ -2996,10 +4457,10 @@
         <v>32</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
@@ -3007,16 +4468,16 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
@@ -3024,16 +4485,16 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
@@ -3041,16 +4502,16 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
@@ -3066,12 +4527,12 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
-      <c r="B16" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
+      <c r="B16" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
     </row>
@@ -3084,10 +4545,10 @@
         <v>32</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
@@ -3095,16 +4556,16 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
@@ -3120,12 +4581,12 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
-      <c r="B20" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
+      <c r="B20" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
     </row>
@@ -3138,10 +4599,10 @@
         <v>32</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
@@ -3149,16 +4610,16 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
@@ -3166,16 +4627,16 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
@@ -3183,16 +4644,16 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
@@ -3200,16 +4661,16 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
@@ -3217,16 +4678,16 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
@@ -3234,16 +4695,16 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
@@ -3251,16 +4712,16 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
@@ -3268,16 +4729,16 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
@@ -3360,757 +4821,757 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J77"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="87.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="59" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="49.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="2" width="9.140625" style="76"/>
+    <col min="3" max="3" width="23.140625" style="76" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="84" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="76" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.42578125" style="76" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59" style="76" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.7109375" style="76" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="76"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C3" s="62" t="s">
+    <row r="3" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="34"/>
+    </row>
+    <row r="4" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="36"/>
-    </row>
-    <row r="4" spans="3:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C4" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="20" t="s">
+      <c r="E5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="H4" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="I4" s="20" t="s">
+      <c r="I5" s="80" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C5" s="7" t="s">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D6" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="J6" s="81"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="E7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="50" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C6" s="7" t="s">
+      <c r="I7" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="J7" s="81"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="F8" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="I6" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="J6" s="35"/>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C7" s="7" t="s">
+      <c r="I8" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="J8" s="81"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="81"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I7" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="J7" s="35"/>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I8" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="J8" s="35"/>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C9" s="7" t="s">
+      <c r="D10" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="35"/>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="35"/>
-    </row>
-    <row r="11" spans="3:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="81"/>
+    </row>
+    <row r="11" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" s="22"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="36"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="3:10" ht="15" x14ac:dyDescent="0.25">
       <c r="C12" s="22"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="33"/>
-    </row>
-    <row r="13" spans="3:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C13" s="62" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="35"/>
-    </row>
-    <row r="14" spans="3:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C14" s="20" t="s">
+      <c r="G12" s="85"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="86"/>
+    </row>
+    <row r="13" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="81"/>
+    </row>
+    <row r="14" spans="3:10" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="81"/>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="J14" s="35"/>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C15" s="7" t="s">
+      <c r="J16" s="81"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I15" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="35"/>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="I16" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="J16" s="35"/>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="D17" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="35"/>
-    </row>
-    <row r="18" spans="3:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="H17" s="79"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="81"/>
+    </row>
+    <row r="18" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="36"/>
+        <v>100</v>
+      </c>
+      <c r="D18" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="34"/>
     </row>
     <row r="19" spans="3:10" ht="15" x14ac:dyDescent="0.25">
       <c r="C19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="79" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="J19" s="86"/>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="81"/>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G21" s="22"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="81"/>
+    </row>
+    <row r="22" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G22" s="70"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="34"/>
+    </row>
+    <row r="23" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="86"/>
+    </row>
+    <row r="24" spans="3:10" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="J24" s="33"/>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="81"/>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="81"/>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="J27" s="81"/>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="D28" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="81"/>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="81"/>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G30" s="33"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="81"/>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G31" s="33"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="81"/>
+    </row>
+    <row r="32" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C32" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+    </row>
+    <row r="33" spans="3:9" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="92"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="92"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="92"/>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="92"/>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I19" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="J19" s="33"/>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="35"/>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="35"/>
-    </row>
-    <row r="22" spans="3:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="36"/>
-    </row>
-    <row r="23" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="33"/>
-    </row>
-    <row r="24" spans="3:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C24" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="I24" s="20" t="s">
+      <c r="F38" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="H38" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="I38" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="J24" s="35"/>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C25" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="35"/>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C26" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="35"/>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C27" s="7" t="s">
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="D39" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="H27" s="4" t="s">
+      <c r="F39" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="G39" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="H39" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="I39" s="88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="H40" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="I40" s="88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="I41" s="88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="G42" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="H42" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="I27" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="J27" s="35"/>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C28" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="35"/>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C29" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="35"/>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="G30" s="34"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="35"/>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="G31" s="34"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="35"/>
-    </row>
-    <row r="32" spans="3:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C32" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-    </row>
-    <row r="33" spans="3:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="C33" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="I33" s="20" t="s">
+      <c r="I42" s="80" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C34" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="47"/>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C35" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="47"/>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C36" s="7" t="s">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="47"/>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C37" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="47"/>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C38" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G38" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="H38" s="4" t="s">
+      <c r="D43" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="G43" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="H43" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="I38" s="50" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C39" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G39" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I39" s="52" t="s">
+      <c r="I43" s="88" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C40" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G40" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I40" s="52" t="s">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="H44" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="I44" s="88" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C41" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G41" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I41" s="52" t="s">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="H45" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="I45" s="88" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C42" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G42" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I42" s="50" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C43" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G43" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I43" s="52" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C44" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G44" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I44" s="52" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C45" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G45" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I45" s="52" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="C58" s="17" t="s">
         <v>31</v>
       </c>
@@ -4121,195 +5582,195 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="3:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:5" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="C59" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" ht="57" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D60" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E60" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="3:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="7" t="s">
+    <row r="61" spans="3:5" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D61" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E61" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="61" spans="3:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="7" t="s">
+      <c r="D62" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="7"/>
+      <c r="D63" s="93"/>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="3:5" ht="57" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E61" s="7" t="s">
+      <c r="D64" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" ht="57" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="7"/>
+      <c r="D67" s="93"/>
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" spans="3:5" ht="57" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="7"/>
+      <c r="D69" s="93"/>
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70" spans="3:5" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="E70" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="3:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E62" s="7" t="s">
+    <row r="71" spans="3:5" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="E71" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="3:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="7"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="7"/>
-    </row>
-    <row r="64" spans="3:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C64" s="7" t="s">
+    <row r="72" spans="3:5" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="65" spans="3:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="7"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="7"/>
-    </row>
-    <row r="68" spans="3:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="7" t="s">
+      <c r="D72" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E68" s="7" t="s">
+      <c r="D73" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="3:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="7"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="7"/>
-    </row>
-    <row r="70" spans="3:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="3:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C71" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="72" spans="3:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="3:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D73" s="4" t="s">
+    <row r="74" spans="3:5" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="E73" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="3:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D74" s="4" t="s">
+      <c r="E74" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="E74" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="3:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D75" s="4" t="s">
+      <c r="E75" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D76" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="E75" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="3:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D76" s="4" t="s">
+      <c r="E76" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D77" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="E76" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" spans="3:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="E77" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4328,8 +5789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4348,480 +5809,480 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="66" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="28" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="66"/>
+        <v>139</v>
+      </c>
+      <c r="D3" s="59"/>
       <c r="E3" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="G3" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="H3" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="I3" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="29" t="s">
-        <v>136</v>
-      </c>
       <c r="J3" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
+      <c r="B4" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>138</v>
+        <v>79</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>137</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>138</v>
+        <v>80</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>137</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>138</v>
+        <v>81</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>137</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="I7" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>137</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71"/>
+      <c r="B9" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="64"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
       <c r="G10" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
+        <v>156</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
       <c r="J10" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
+        <v>142</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
       <c r="G11" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40" t="s">
+        <v>153</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>138</v>
+        <v>143</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>137</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="71"/>
+      <c r="B13" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="64"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>139</v>
+        <v>144</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>138</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="G14" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="71"/>
+      <c r="B15" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="64"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>138</v>
+        <v>145</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>137</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="39" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="39" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="39" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>138</v>
+        <v>146</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>137</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D21" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="39" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D22" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="39" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D23" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="39" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B13:J13"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:J2"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="B9:J9"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Documentation/Testing/CinemaSea_Testing_v.0.3.xlsx
+++ b/Documentation/Testing/CinemaSea_Testing_v.0.3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" firstSheet="6" activeTab="10"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="233">
   <si>
     <t>Vytvořit film</t>
   </si>
@@ -630,9 +630,6 @@
     <t>checkUsername_nonSenseText_test</t>
   </si>
   <si>
-    <t>Not valid</t>
-  </si>
-  <si>
     <t>Testuje, zda-li je možné vytvořit uživatele bez pseudonymu</t>
   </si>
   <si>
@@ -678,10 +675,55 @@
     <t>movieDialog_findPeopleFunc_ArraysSameData_test</t>
   </si>
   <si>
-    <t>movieDialog_findPeopleFunc_firstArrLarger_andSwap_test</t>
-  </si>
-  <si>
     <t>movieDialog_findPeopleFunc_arrsDifferentData_test</t>
+  </si>
+  <si>
+    <t>Testuje, zda-li je možné vytvořit uživatele(který není v databázi ještě) se všemi správně vyplněnýmí hodnotami.</t>
+  </si>
+  <si>
+    <t>Testuje, zda-li je možné vytvořit uživatele s uživatelským jménem, které má již někdo zabraný.</t>
+  </si>
+  <si>
+    <t>Testuje, zda-li je možné vytvořit nick uživatele tvořený speciálními znaky.</t>
+  </si>
+  <si>
+    <t>Testuje, zda-li funguje klonování objektu, zda-li se zkopíravala všechna data správně.</t>
+  </si>
+  <si>
+    <t>Testuje, zda-li se můžeme dotázat na neexistující parametr instance, jestli je prázdný.</t>
+  </si>
+  <si>
+    <t>Testuje, zda-li je pole herců prázdné.</t>
+  </si>
+  <si>
+    <t>Testuje, zda-li je pole herců naplněné.</t>
+  </si>
+  <si>
+    <t>Testuje, zda-li je pole scénáristů prázdné.</t>
+  </si>
+  <si>
+    <t>Testuje, zda-li je pole scénáristů naplněné.</t>
+  </si>
+  <si>
+    <t>Testuje, zda-li je pole režisérů prázdné.</t>
+  </si>
+  <si>
+    <t>Testuje, zda-li je pole režisérů naplněné.</t>
+  </si>
+  <si>
+    <t>Testuje, zda-li se nějací lidé vyskytují v druhém listu a vrací počet těch lidí.</t>
+  </si>
+  <si>
+    <t>Testuje, kolik lidí bylo přidáno do druhého listu.</t>
+  </si>
+  <si>
+    <t>Testuje, zda-li se nepočítají duplicity v polích.</t>
+  </si>
+  <si>
+    <t>movieDialog_findPeopleFunc_firstArrLarger_test</t>
+  </si>
+  <si>
+    <t>movieDialog_findPeopleFunc_secondArrLarger_test</t>
   </si>
 </sst>
 </file>
@@ -791,7 +833,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -849,6 +891,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,7 +1017,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1067,6 +1115,105 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1103,6 +1250,15 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1118,114 +1274,12 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1244,9 +1298,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv systému Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kancelář">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1284,7 +1338,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kancelář">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1356,7 +1410,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kancelář">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1544,12 +1598,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
       <c r="F3" s="42" t="s">
         <v>20</v>
       </c>
@@ -1567,11 +1621,11 @@
       <c r="B4" s="43">
         <v>1</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="44" t="s">
         <v>26</v>
       </c>
@@ -1583,11 +1637,11 @@
       <c r="B5" s="43">
         <v>2</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
       <c r="F5" s="44"/>
       <c r="G5" s="44" t="s">
         <v>26</v>
@@ -1599,11 +1653,11 @@
       <c r="B6" s="43">
         <v>3</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
       <c r="H6" s="44"/>
@@ -1615,11 +1669,11 @@
       <c r="B7" s="43">
         <v>4</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="44"/>
       <c r="G7" s="44"/>
       <c r="H7" s="44" t="s">
@@ -1631,11 +1685,11 @@
       <c r="B8" s="43">
         <v>5</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
       <c r="F8" s="44" t="s">
         <v>25</v>
       </c>
@@ -1653,11 +1707,11 @@
       <c r="B9" s="43">
         <v>6</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
       <c r="F9" s="44" t="s">
         <v>25</v>
       </c>
@@ -1669,11 +1723,11 @@
       <c r="B10" s="43">
         <v>7</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
       <c r="F10" s="44" t="s">
         <v>25</v>
       </c>
@@ -1685,11 +1739,11 @@
       <c r="B11" s="43">
         <v>8</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
       <c r="F11" s="44" t="s">
         <v>25</v>
       </c>
@@ -1701,11 +1755,11 @@
       <c r="B12" s="43">
         <v>9</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
       <c r="F12" s="44" t="s">
         <v>25</v>
       </c>
@@ -1723,11 +1777,11 @@
       <c r="B13" s="43">
         <v>10</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
       <c r="F13" s="44" t="s">
         <v>25</v>
       </c>
@@ -1745,11 +1799,11 @@
       <c r="B14" s="43">
         <v>11</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
       <c r="F14" s="44" t="s">
         <v>25</v>
       </c>
@@ -1761,11 +1815,11 @@
       <c r="B15" s="43">
         <v>12</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
       <c r="F15" s="44"/>
       <c r="G15" s="44" t="s">
         <v>25</v>
@@ -1781,11 +1835,11 @@
       <c r="B16" s="43">
         <v>13</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
       <c r="F16" s="44"/>
       <c r="G16" s="44" t="s">
         <v>27</v>
@@ -1801,11 +1855,11 @@
       <c r="B17" s="43">
         <v>14</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
       <c r="F17" s="44" t="s">
         <v>27</v>
       </c>
@@ -1817,11 +1871,11 @@
       <c r="B18" s="43">
         <v>15</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
       <c r="F18" s="44" t="s">
         <v>25</v>
       </c>
@@ -1839,11 +1893,11 @@
       <c r="B19" s="43">
         <v>16</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
       <c r="F19" s="44" t="s">
         <v>27</v>
       </c>
@@ -1855,11 +1909,11 @@
       <c r="B20" s="43">
         <v>17</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
       <c r="F20" s="44"/>
       <c r="G20" s="44"/>
       <c r="H20" s="44" t="s">
@@ -1871,11 +1925,11 @@
       <c r="B21" s="43">
         <v>18</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
       <c r="F21" s="44"/>
       <c r="G21" s="44" t="s">
         <v>27</v>
@@ -1887,11 +1941,11 @@
       <c r="B22" s="43">
         <v>19</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
       <c r="F22" s="44"/>
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
@@ -1903,11 +1957,11 @@
       <c r="B23" s="43">
         <v>20</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
       <c r="F23" s="44" t="s">
         <v>25</v>
       </c>
@@ -1958,31 +2012,31 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:I93"/>
+  <dimension ref="D3:I96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="76"/>
-    <col min="4" max="4" width="4.42578125" style="76" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" style="84" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45" style="84" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.42578125" style="76" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="56"/>
+    <col min="4" max="4" width="4.42578125" style="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" style="64" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45" style="64" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.42578125" style="56" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="76"/>
+    <col min="9" max="16384" width="9.140625" style="56"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D3" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="94" t="s">
+      <c r="E3" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F3" s="94" t="s">
+      <c r="F3" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G3" s="41" t="s">
@@ -1993,16 +2047,16 @@
       </c>
     </row>
     <row r="4" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D4" s="79">
+      <c r="D4" s="59">
         <v>111</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="73" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="93" t="s">
+      <c r="F4" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="G4" s="79" t="s">
+      <c r="G4" s="59" t="s">
         <v>176</v>
       </c>
       <c r="H4" s="30" t="s">
@@ -2013,10 +2067,10 @@
       <c r="D6" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="E6" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G6" s="41" t="s">
@@ -2027,16 +2081,16 @@
       </c>
     </row>
     <row r="7" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="79">
+      <c r="D7" s="59">
         <v>112</v>
       </c>
-      <c r="E7" s="93" t="s">
+      <c r="E7" s="73" t="s">
         <v>178</v>
       </c>
-      <c r="F7" s="93" t="s">
+      <c r="F7" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="G7" s="79" t="s">
+      <c r="G7" s="59" t="s">
         <v>176</v>
       </c>
       <c r="H7" s="30" t="s">
@@ -2047,10 +2101,10 @@
       <c r="D9" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="94" t="s">
+      <c r="E9" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="94" t="s">
+      <c r="F9" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G9" s="41" t="s">
@@ -2061,16 +2115,16 @@
       </c>
     </row>
     <row r="10" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="79">
+      <c r="D10" s="59">
         <v>113</v>
       </c>
-      <c r="E10" s="93" t="s">
+      <c r="E10" s="73" t="s">
         <v>179</v>
       </c>
-      <c r="F10" s="93" t="s">
+      <c r="F10" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="G10" s="79" t="s">
+      <c r="G10" s="59" t="s">
         <v>183</v>
       </c>
       <c r="H10" s="30" t="s">
@@ -2081,10 +2135,10 @@
       <c r="D12" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="94" t="s">
+      <c r="E12" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F12" s="94" t="s">
+      <c r="F12" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G12" s="41" t="s">
@@ -2095,16 +2149,16 @@
       </c>
     </row>
     <row r="13" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D13" s="79">
+      <c r="D13" s="59">
         <v>114</v>
       </c>
-      <c r="E13" s="93" t="s">
+      <c r="E13" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="F13" s="93" t="s">
+      <c r="F13" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="G13" s="79" t="s">
+      <c r="G13" s="59" t="s">
         <v>183</v>
       </c>
       <c r="H13" s="30" t="s">
@@ -2115,10 +2169,10 @@
       <c r="D15" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="94" t="s">
+      <c r="E15" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F15" s="94" t="s">
+      <c r="F15" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G15" s="41" t="s">
@@ -2129,16 +2183,16 @@
       </c>
     </row>
     <row r="16" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D16" s="79">
+      <c r="D16" s="59">
         <v>115</v>
       </c>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="F16" s="93" t="s">
+      <c r="F16" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="G16" s="79" t="s">
+      <c r="G16" s="59" t="s">
         <v>182</v>
       </c>
       <c r="H16" s="30" t="s">
@@ -2149,10 +2203,10 @@
       <c r="D18" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="94" t="s">
+      <c r="E18" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F18" s="94" t="s">
+      <c r="F18" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G18" s="41" t="s">
@@ -2163,16 +2217,16 @@
       </c>
     </row>
     <row r="19" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D19" s="79">
+      <c r="D19" s="59">
         <v>116</v>
       </c>
-      <c r="E19" s="93" t="s">
+      <c r="E19" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="F19" s="93" t="s">
+      <c r="F19" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="G19" s="79" t="s">
+      <c r="G19" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H19" s="30" t="s">
@@ -2183,10 +2237,10 @@
       <c r="D21" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="94" t="s">
+      <c r="E21" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F21" s="94" t="s">
+      <c r="F21" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G21" s="41" t="s">
@@ -2197,17 +2251,17 @@
       </c>
     </row>
     <row r="22" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D22" s="79">
+      <c r="D22" s="59">
         <v>121</v>
       </c>
-      <c r="E22" s="93" t="s">
+      <c r="E22" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="F22" s="93" t="s">
-        <v>202</v>
-      </c>
-      <c r="G22" s="79" t="s">
-        <v>204</v>
+      <c r="F22" s="73" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" s="59" t="s">
+        <v>203</v>
       </c>
       <c r="H22" s="30" t="s">
         <v>177</v>
@@ -2217,10 +2271,10 @@
       <c r="D24" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="94" t="s">
+      <c r="E24" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="94" t="s">
+      <c r="F24" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G24" s="41" t="s">
@@ -2230,17 +2284,17 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D25" s="79">
+    <row r="25" spans="4:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="D25" s="59">
         <v>122</v>
       </c>
-      <c r="E25" s="93" t="s">
+      <c r="E25" s="73" t="s">
         <v>198</v>
       </c>
-      <c r="F25" s="93" t="s">
-        <v>174</v>
-      </c>
-      <c r="G25" s="79" t="s">
+      <c r="F25" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H25" s="30" t="s">
@@ -2251,10 +2305,10 @@
       <c r="D27" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="94" t="s">
+      <c r="E27" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="94" t="s">
+      <c r="F27" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G27" s="41" t="s">
@@ -2264,18 +2318,18 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D28" s="79">
+    <row r="28" spans="4:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="D28" s="59">
         <v>123</v>
       </c>
-      <c r="E28" s="93" t="s">
+      <c r="E28" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="F28" s="93" t="s">
-        <v>174</v>
-      </c>
-      <c r="G28" s="79" t="s">
-        <v>203</v>
+      <c r="F28" s="73" t="s">
+        <v>218</v>
+      </c>
+      <c r="G28" s="59" t="s">
+        <v>202</v>
       </c>
       <c r="H28" s="30" t="s">
         <v>177</v>
@@ -2285,10 +2339,10 @@
       <c r="D30" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="94" t="s">
+      <c r="E30" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F30" s="94" t="s">
+      <c r="F30" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G30" s="41" t="s">
@@ -2299,37 +2353,37 @@
       </c>
     </row>
     <row r="31" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D31" s="79">
+      <c r="D31" s="59">
         <v>124</v>
       </c>
-      <c r="E31" s="93" t="s">
+      <c r="E31" s="73" t="s">
         <v>200</v>
       </c>
-      <c r="F31" s="93" t="s">
-        <v>174</v>
-      </c>
-      <c r="G31" s="79" t="s">
-        <v>201</v>
+      <c r="F31" s="73" t="s">
+        <v>219</v>
+      </c>
+      <c r="G31" s="59" t="s">
+        <v>188</v>
       </c>
       <c r="H31" s="30" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="32" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D32" s="89"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="89"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="69"/>
       <c r="H32" s="33"/>
     </row>
     <row r="33" spans="4:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D33" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="94" t="s">
+      <c r="E33" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F33" s="94" t="s">
+      <c r="F33" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G33" s="41" t="s">
@@ -2340,16 +2394,16 @@
       </c>
     </row>
     <row r="34" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D34" s="79">
+      <c r="D34" s="59">
         <v>131</v>
       </c>
-      <c r="E34" s="93" t="s">
-        <v>205</v>
-      </c>
-      <c r="F34" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="G34" s="79" t="s">
+      <c r="E34" s="73" t="s">
+        <v>204</v>
+      </c>
+      <c r="F34" s="73" t="s">
+        <v>220</v>
+      </c>
+      <c r="G34" s="59" t="s">
         <v>176</v>
       </c>
       <c r="H34" s="30" t="s">
@@ -2360,10 +2414,10 @@
       <c r="D36" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="94" t="s">
+      <c r="E36" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F36" s="94" t="s">
+      <c r="F36" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G36" s="41" t="s">
@@ -2373,17 +2427,17 @@
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D37" s="79">
+    <row r="37" spans="4:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="D37" s="59">
         <v>132</v>
       </c>
-      <c r="E37" s="93" t="s">
-        <v>206</v>
-      </c>
-      <c r="F37" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="G37" s="79" t="s">
+      <c r="E37" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="F37" s="73" t="s">
+        <v>221</v>
+      </c>
+      <c r="G37" s="59" t="s">
         <v>176</v>
       </c>
       <c r="H37" s="30" t="s">
@@ -2394,10 +2448,10 @@
       <c r="D39" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="94" t="s">
+      <c r="E39" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F39" s="94" t="s">
+      <c r="F39" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G39" s="41" t="s">
@@ -2407,17 +2461,17 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D40" s="79">
+    <row r="40" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D40" s="59">
         <v>133</v>
       </c>
-      <c r="E40" s="93" t="s">
-        <v>207</v>
-      </c>
-      <c r="F40" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="G40" s="79" t="s">
+      <c r="E40" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="F40" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="G40" s="59" t="s">
         <v>183</v>
       </c>
       <c r="H40" s="30" t="s">
@@ -2428,10 +2482,10 @@
       <c r="D42" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="94" t="s">
+      <c r="E42" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F42" s="94" t="s">
+      <c r="F42" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G42" s="41" t="s">
@@ -2442,16 +2496,16 @@
       </c>
     </row>
     <row r="43" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D43" s="79">
+      <c r="D43" s="59">
         <v>134</v>
       </c>
-      <c r="E43" s="93" t="s">
-        <v>208</v>
-      </c>
-      <c r="F43" s="93" t="s">
-        <v>185</v>
-      </c>
-      <c r="G43" s="79" t="s">
+      <c r="E43" s="73" t="s">
+        <v>207</v>
+      </c>
+      <c r="F43" s="73" t="s">
+        <v>223</v>
+      </c>
+      <c r="G43" s="59" t="s">
         <v>183</v>
       </c>
       <c r="H43" s="30" t="s">
@@ -2462,10 +2516,10 @@
       <c r="D45" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="94" t="s">
+      <c r="E45" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F45" s="94" t="s">
+      <c r="F45" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G45" s="41" t="s">
@@ -2476,16 +2530,16 @@
       </c>
     </row>
     <row r="46" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D46" s="79">
+      <c r="D46" s="59">
         <v>135</v>
       </c>
-      <c r="E46" s="93" t="s">
-        <v>209</v>
-      </c>
-      <c r="F46" s="93" t="s">
-        <v>186</v>
-      </c>
-      <c r="G46" s="79" t="s">
+      <c r="E46" s="73" t="s">
+        <v>208</v>
+      </c>
+      <c r="F46" s="73" t="s">
+        <v>224</v>
+      </c>
+      <c r="G46" s="59" t="s">
         <v>182</v>
       </c>
       <c r="H46" s="30" t="s">
@@ -2496,10 +2550,10 @@
       <c r="D48" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="94" t="s">
+      <c r="E48" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F48" s="94" t="s">
+      <c r="F48" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G48" s="41" t="s">
@@ -2510,16 +2564,16 @@
       </c>
     </row>
     <row r="49" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D49" s="79">
+      <c r="D49" s="59">
         <v>136</v>
       </c>
-      <c r="E49" s="93" t="s">
-        <v>210</v>
-      </c>
-      <c r="F49" s="93" t="s">
-        <v>189</v>
-      </c>
-      <c r="G49" s="79" t="s">
+      <c r="E49" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="F49" s="73" t="s">
+        <v>225</v>
+      </c>
+      <c r="G49" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H49" s="30" t="s">
@@ -2527,20 +2581,20 @@
       </c>
     </row>
     <row r="50" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D50" s="89"/>
-      <c r="E50" s="95"/>
-      <c r="F50" s="95"/>
-      <c r="G50" s="89"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="69"/>
       <c r="H50" s="33"/>
     </row>
     <row r="51" spans="4:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D51" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E51" s="94" t="s">
+      <c r="E51" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F51" s="94" t="s">
+      <c r="F51" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G51" s="41" t="s">
@@ -2551,16 +2605,16 @@
       </c>
     </row>
     <row r="52" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D52" s="79">
+      <c r="D52" s="59">
         <v>137</v>
       </c>
-      <c r="E52" s="93" t="s">
-        <v>211</v>
-      </c>
-      <c r="F52" s="93" t="s">
-        <v>174</v>
-      </c>
-      <c r="G52" s="79" t="s">
+      <c r="E52" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="F52" s="73" t="s">
+        <v>226</v>
+      </c>
+      <c r="G52" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H52" s="30" t="s">
@@ -2568,20 +2622,20 @@
       </c>
     </row>
     <row r="53" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D53" s="89"/>
-      <c r="E53" s="95"/>
-      <c r="F53" s="95"/>
-      <c r="G53" s="89"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="69"/>
       <c r="H53" s="33"/>
     </row>
     <row r="54" spans="4:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D54" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E54" s="94" t="s">
+      <c r="E54" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F54" s="94" t="s">
+      <c r="F54" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G54" s="41" t="s">
@@ -2592,16 +2646,16 @@
       </c>
     </row>
     <row r="55" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D55" s="79">
+      <c r="D55" s="59">
         <v>138</v>
       </c>
-      <c r="E55" s="93" t="s">
-        <v>212</v>
-      </c>
-      <c r="F55" s="93" t="s">
-        <v>174</v>
-      </c>
-      <c r="G55" s="79" t="s">
+      <c r="E55" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="F55" s="73" t="s">
+        <v>227</v>
+      </c>
+      <c r="G55" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H55" s="30" t="s">
@@ -2609,20 +2663,20 @@
       </c>
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D56" s="89"/>
-      <c r="E56" s="95"/>
-      <c r="F56" s="95"/>
-      <c r="G56" s="89"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="69"/>
       <c r="H56" s="33"/>
     </row>
     <row r="57" spans="4:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D57" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E57" s="94" t="s">
+      <c r="E57" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F57" s="94" t="s">
+      <c r="F57" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G57" s="41" t="s">
@@ -2632,17 +2686,17 @@
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D58" s="79">
+    <row r="58" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D58" s="59">
         <v>141</v>
       </c>
-      <c r="E58" s="93" t="s">
-        <v>213</v>
-      </c>
-      <c r="F58" s="93" t="s">
-        <v>174</v>
-      </c>
-      <c r="G58" s="79" t="s">
+      <c r="E58" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="F58" s="73" t="s">
+        <v>228</v>
+      </c>
+      <c r="G58" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H58" s="30" t="s">
@@ -2650,20 +2704,20 @@
       </c>
     </row>
     <row r="59" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D59" s="89"/>
-      <c r="E59" s="95"/>
-      <c r="F59" s="95"/>
-      <c r="G59" s="89"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="75"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="69"/>
       <c r="H59" s="33"/>
     </row>
     <row r="60" spans="4:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D60" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E60" s="94" t="s">
+      <c r="E60" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F60" s="94" t="s">
+      <c r="F60" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G60" s="41" t="s">
@@ -2673,17 +2727,17 @@
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D61" s="79">
+    <row r="61" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D61" s="59">
         <v>142</v>
       </c>
-      <c r="E61" s="93" t="s">
-        <v>214</v>
-      </c>
-      <c r="F61" s="93" t="s">
-        <v>174</v>
-      </c>
-      <c r="G61" s="79" t="s">
+      <c r="E61" s="73" t="s">
+        <v>213</v>
+      </c>
+      <c r="F61" s="73" t="s">
+        <v>229</v>
+      </c>
+      <c r="G61" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H61" s="30" t="s">
@@ -2691,20 +2745,20 @@
       </c>
     </row>
     <row r="62" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D62" s="89"/>
-      <c r="E62" s="95"/>
-      <c r="F62" s="95"/>
-      <c r="G62" s="89"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="75"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="69"/>
       <c r="H62" s="33"/>
     </row>
     <row r="63" spans="4:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D63" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E63" s="94" t="s">
+      <c r="E63" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F63" s="94" t="s">
+      <c r="F63" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G63" s="41" t="s">
@@ -2714,17 +2768,17 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D64" s="79">
+    <row r="64" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D64" s="59">
         <v>143</v>
       </c>
-      <c r="E64" s="93" t="s">
-        <v>215</v>
-      </c>
-      <c r="F64" s="93" t="s">
-        <v>174</v>
-      </c>
-      <c r="G64" s="79" t="s">
+      <c r="E64" s="73" t="s">
+        <v>214</v>
+      </c>
+      <c r="F64" s="73" t="s">
+        <v>229</v>
+      </c>
+      <c r="G64" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H64" s="30" t="s">
@@ -2732,20 +2786,20 @@
       </c>
     </row>
     <row r="65" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D65" s="89"/>
-      <c r="E65" s="95"/>
-      <c r="F65" s="95"/>
-      <c r="G65" s="89"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="75"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="69"/>
       <c r="H65" s="33"/>
     </row>
     <row r="66" spans="4:9" ht="15" x14ac:dyDescent="0.25">
       <c r="D66" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E66" s="94" t="s">
+      <c r="E66" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F66" s="94" t="s">
+      <c r="F66" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G66" s="41" t="s">
@@ -2754,86 +2808,86 @@
       <c r="H66" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="I66" s="96"/>
-    </row>
-    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D67" s="79">
+      <c r="I66" s="76"/>
+    </row>
+    <row r="67" spans="4:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D67" s="59">
         <v>144</v>
       </c>
-      <c r="E67" s="93" t="s">
-        <v>216</v>
-      </c>
-      <c r="F67" s="93" t="s">
-        <v>174</v>
-      </c>
-      <c r="G67" s="79" t="s">
+      <c r="E67" s="73" t="s">
+        <v>215</v>
+      </c>
+      <c r="F67" s="73" t="s">
+        <v>230</v>
+      </c>
+      <c r="G67" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H67" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="I67" s="96"/>
+      <c r="I67" s="76"/>
     </row>
     <row r="68" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D68" s="89"/>
-      <c r="E68" s="95"/>
-      <c r="F68" s="95"/>
-      <c r="G68" s="81"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="96"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="75"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="69"/>
+      <c r="H68" s="98"/>
+      <c r="I68" s="76"/>
     </row>
     <row r="69" spans="4:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="D69" s="41" t="s">
+      <c r="D69" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="E69" s="94" t="s">
+      <c r="E69" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F69" s="94" t="s">
+      <c r="F69" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="G69" s="41" t="s">
+      <c r="G69" s="77" t="s">
         <v>175</v>
       </c>
-      <c r="H69" s="41" t="s">
+      <c r="H69" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="I69" s="96"/>
-    </row>
-    <row r="70" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D70" s="79">
+      <c r="I69" s="76"/>
+    </row>
+    <row r="70" spans="4:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D70" s="59">
         <v>145</v>
       </c>
-      <c r="E70" s="93" t="s">
-        <v>217</v>
-      </c>
-      <c r="F70" s="93" t="s">
+      <c r="E70" s="73" t="s">
+        <v>231</v>
+      </c>
+      <c r="F70" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="G70" s="79" t="s">
+      <c r="G70" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H70" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="I70" s="96"/>
+      <c r="I70" s="76"/>
     </row>
     <row r="71" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D71" s="89"/>
-      <c r="E71" s="95"/>
-      <c r="F71" s="95"/>
-      <c r="G71" s="81"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="75"/>
+      <c r="F71" s="75"/>
+      <c r="G71" s="61"/>
       <c r="H71" s="33"/>
-      <c r="I71" s="96"/>
+      <c r="I71" s="76"/>
     </row>
     <row r="72" spans="4:9" ht="15" x14ac:dyDescent="0.25">
       <c r="D72" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E72" s="94" t="s">
+      <c r="E72" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F72" s="94" t="s">
+      <c r="F72" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G72" s="41" t="s">
@@ -2842,34 +2896,42 @@
       <c r="H72" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="I72" s="96"/>
-    </row>
-    <row r="73" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D73" s="79">
-        <v>146</v>
-      </c>
-      <c r="E73" s="93" t="s">
-        <v>218</v>
-      </c>
-      <c r="F73" s="93" t="s">
+      <c r="I72" s="76"/>
+    </row>
+    <row r="73" spans="4:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D73" s="59">
+        <v>145</v>
+      </c>
+      <c r="E73" s="73" t="s">
+        <v>232</v>
+      </c>
+      <c r="F73" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="G73" s="79" t="s">
+      <c r="G73" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H73" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="I73" s="96"/>
+      <c r="I73" s="76"/>
+    </row>
+    <row r="74" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D74" s="69"/>
+      <c r="E74" s="75"/>
+      <c r="F74" s="75"/>
+      <c r="G74" s="61"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="76"/>
     </row>
     <row r="75" spans="4:9" ht="15" x14ac:dyDescent="0.25">
       <c r="D75" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="94" t="s">
+      <c r="E75" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F75" s="94" t="s">
+      <c r="F75" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G75" s="41" t="s">
@@ -2878,32 +2940,34 @@
       <c r="H75" s="41" t="s">
         <v>173</v>
       </c>
+      <c r="I75" s="76"/>
     </row>
     <row r="76" spans="4:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D76" s="79">
-        <v>211</v>
-      </c>
-      <c r="E76" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="F76" s="93" t="s">
-        <v>192</v>
-      </c>
-      <c r="G76" s="79" t="s">
+      <c r="D76" s="59">
+        <v>146</v>
+      </c>
+      <c r="E76" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="F76" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="G76" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H76" s="30" t="s">
         <v>177</v>
       </c>
+      <c r="I76" s="76"/>
     </row>
     <row r="78" spans="4:9" ht="15" x14ac:dyDescent="0.25">
       <c r="D78" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E78" s="94" t="s">
+      <c r="E78" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F78" s="94" t="s">
+      <c r="F78" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G78" s="41" t="s">
@@ -2914,16 +2978,16 @@
       </c>
     </row>
     <row r="79" spans="4:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D79" s="79">
-        <v>212</v>
-      </c>
-      <c r="E79" s="93" t="s">
-        <v>191</v>
-      </c>
-      <c r="F79" s="93" t="s">
-        <v>193</v>
-      </c>
-      <c r="G79" s="79" t="s">
+      <c r="D79" s="59">
+        <v>211</v>
+      </c>
+      <c r="E79" s="73" t="s">
+        <v>190</v>
+      </c>
+      <c r="F79" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="G79" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H79" s="30" t="s">
@@ -2934,10 +2998,10 @@
       <c r="D81" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E81" s="94" t="s">
+      <c r="E81" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F81" s="94" t="s">
+      <c r="F81" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G81" s="41" t="s">
@@ -2948,16 +3012,16 @@
       </c>
     </row>
     <row r="82" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D82" s="79">
-        <v>213</v>
-      </c>
-      <c r="E82" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="F82" s="93" t="s">
-        <v>194</v>
-      </c>
-      <c r="G82" s="79" t="s">
+      <c r="D82" s="59">
+        <v>212</v>
+      </c>
+      <c r="E82" s="73" t="s">
+        <v>191</v>
+      </c>
+      <c r="F82" s="73" t="s">
+        <v>193</v>
+      </c>
+      <c r="G82" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H82" s="30" t="s">
@@ -2968,10 +3032,10 @@
       <c r="D84" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E84" s="94" t="s">
+      <c r="E84" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F84" s="94" t="s">
+      <c r="F84" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G84" s="41" t="s">
@@ -2982,16 +3046,16 @@
       </c>
     </row>
     <row r="85" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D85" s="79">
-        <v>214</v>
-      </c>
-      <c r="E85" s="93" t="s">
-        <v>191</v>
-      </c>
-      <c r="F85" s="93" t="s">
-        <v>195</v>
-      </c>
-      <c r="G85" s="79" t="s">
+      <c r="D85" s="59">
+        <v>213</v>
+      </c>
+      <c r="E85" s="73" t="s">
+        <v>190</v>
+      </c>
+      <c r="F85" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="G85" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H85" s="30" t="s">
@@ -3002,10 +3066,10 @@
       <c r="D87" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E87" s="94" t="s">
+      <c r="E87" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F87" s="94" t="s">
+      <c r="F87" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G87" s="41" t="s">
@@ -3016,41 +3080,75 @@
       </c>
     </row>
     <row r="88" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D88" s="79">
-        <v>215</v>
-      </c>
-      <c r="E88" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="F88" s="93" t="s">
-        <v>196</v>
-      </c>
-      <c r="G88" s="79" t="s">
+      <c r="D88" s="59">
+        <v>214</v>
+      </c>
+      <c r="E88" s="73" t="s">
+        <v>191</v>
+      </c>
+      <c r="F88" s="73" t="s">
+        <v>195</v>
+      </c>
+      <c r="G88" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H88" s="30" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="89" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F89" s="76"/>
-      <c r="H89" s="76"/>
-    </row>
-    <row r="90" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F90" s="76"/>
-      <c r="H90" s="76"/>
-    </row>
-    <row r="91" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F91" s="76"/>
-      <c r="H91" s="76"/>
+    <row r="90" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D90" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E90" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="F90" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="G90" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H90" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D91" s="59">
+        <v>215</v>
+      </c>
+      <c r="E91" s="73" t="s">
+        <v>190</v>
+      </c>
+      <c r="F91" s="73" t="s">
+        <v>196</v>
+      </c>
+      <c r="G91" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="H91" s="30" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="92" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F92" s="76"/>
-      <c r="H92" s="76"/>
+      <c r="F92" s="56"/>
+      <c r="H92" s="56"/>
     </row>
     <row r="93" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F93" s="76"/>
-      <c r="H93" s="76"/>
+      <c r="F93" s="56"/>
+      <c r="H93" s="56"/>
+    </row>
+    <row r="94" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F94" s="56"/>
+      <c r="H94" s="56"/>
+    </row>
+    <row r="95" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F95" s="56"/>
+      <c r="H95" s="56"/>
+    </row>
+    <row r="96" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F96" s="56"/>
+      <c r="H96" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3063,7 +3161,7 @@
   <dimension ref="B3:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E26"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3094,22 +3192,22 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="65">
+      <c r="B4" s="45">
         <v>1</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="45">
         <v>123</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="47">
         <v>42503</v>
       </c>
     </row>
@@ -3129,7 +3227,7 @@
       <c r="F5" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="G5" s="67">
+      <c r="G5" s="47">
         <v>42504</v>
       </c>
     </row>
@@ -3176,7 +3274,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="80" t="s">
         <v>76</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -3193,7 +3291,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="47"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="4" t="s">
         <v>40</v>
       </c>
@@ -3208,7 +3306,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="47"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="4" t="s">
         <v>49</v>
       </c>
@@ -3223,7 +3321,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="47"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="4" t="s">
         <v>50</v>
       </c>
@@ -3245,7 +3343,7 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="81" t="s">
         <v>77</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -3262,7 +3360,7 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="48"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="4" t="s">
         <v>55</v>
       </c>
@@ -3277,7 +3375,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="48"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="4" t="s">
         <v>53</v>
       </c>
@@ -3323,7 +3421,7 @@
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="81" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -3340,7 +3438,7 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="48"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
@@ -3355,7 +3453,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="48"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="4" t="s">
         <v>43</v>
       </c>
@@ -3370,7 +3468,7 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="48"/>
+      <c r="B18" s="81"/>
       <c r="C18" s="4" t="s">
         <v>44</v>
       </c>
@@ -3385,7 +3483,7 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="48"/>
+      <c r="B19" s="81"/>
       <c r="C19" s="4" t="s">
         <v>45</v>
       </c>
@@ -3400,7 +3498,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="48"/>
+      <c r="B20" s="81"/>
       <c r="C20" s="4" t="s">
         <v>46</v>
       </c>
@@ -3415,7 +3513,7 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="48"/>
+      <c r="B21" s="81"/>
       <c r="C21" s="4" t="s">
         <v>47</v>
       </c>
@@ -3430,7 +3528,7 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="48"/>
+      <c r="B22" s="81"/>
       <c r="C22" s="4" t="s">
         <v>48</v>
       </c>
@@ -3575,21 +3673,21 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
     </row>
     <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="83"/>
       <c r="D5" s="8">
         <v>1</v>
       </c>
@@ -4025,11 +4123,11 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="54"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87"/>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" s="20" t="s">
@@ -4100,11 +4198,11 @@
       <c r="C11" s="22"/>
     </row>
     <row r="12" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="87"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C13" s="20" t="s">
@@ -4167,11 +4265,11 @@
       <c r="E18" s="4"/>
     </row>
     <row r="21" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="87"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="20" t="s">
@@ -4232,11 +4330,11 @@
       <c r="E27" s="4"/>
     </row>
     <row r="30" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="53"/>
-      <c r="E30" s="54"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="87"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="20" t="s">
@@ -4334,12 +4432,12 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
     </row>
@@ -4439,12 +4537,12 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
     </row>
@@ -4527,12 +4625,12 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
     </row>
@@ -4581,12 +4679,12 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
     </row>
@@ -4827,35 +4925,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="76"/>
-    <col min="3" max="3" width="23.140625" style="76" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="84" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="76" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.42578125" style="76" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="56"/>
+    <col min="3" max="3" width="23.140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="64" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.42578125" style="56" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="59" style="76" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59" style="56" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="49.7109375" style="76" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="76"/>
+    <col min="10" max="10" width="49.7109375" style="56" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="56"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
       <c r="J3" s="34"/>
     </row>
     <row r="4" spans="3:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="57" t="s">
         <v>102</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -4867,7 +4965,7 @@
       <c r="G4" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H4" s="78" t="s">
+      <c r="H4" s="58" t="s">
         <v>103</v>
       </c>
       <c r="I4" s="8" t="s">
@@ -4878,22 +4976,22 @@
       <c r="C5" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="52" t="s">
         <v>105</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="59" t="s">
         <v>84</v>
       </c>
       <c r="G5" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="79" t="s">
+      <c r="H5" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="I5" s="80" t="s">
+      <c r="I5" s="60" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4901,133 +4999,133 @@
       <c r="C6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="52" t="s">
         <v>105</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="79" t="s">
+      <c r="F6" s="59" t="s">
         <v>85</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="H6" s="79" t="s">
+      <c r="H6" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="I6" s="80" t="s">
+      <c r="I6" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="J6" s="81"/>
+      <c r="J6" s="61"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="53" t="s">
         <v>106</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="79" t="s">
+      <c r="F7" s="59" t="s">
         <v>86</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="79" t="s">
+      <c r="H7" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="I7" s="80" t="s">
+      <c r="I7" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="J7" s="81"/>
+      <c r="J7" s="61"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="53" t="s">
         <v>106</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="79" t="s">
+      <c r="F8" s="59" t="s">
         <v>87</v>
       </c>
       <c r="G8" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="79" t="s">
+      <c r="H8" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="I8" s="80" t="s">
+      <c r="I8" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="J8" s="81"/>
+      <c r="J8" s="61"/>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="81"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="61"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
       <c r="G10" s="35"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="81"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="61"/>
     </row>
     <row r="11" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" s="22"/>
-      <c r="G11" s="70"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="34"/>
-      <c r="I11" s="68"/>
+      <c r="I11" s="48"/>
       <c r="J11" s="34"/>
     </row>
     <row r="12" spans="3:10" ht="15" x14ac:dyDescent="0.25">
       <c r="C12" s="22"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="86"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="81"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="61"/>
     </row>
     <row r="14" spans="3:10" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="57" t="s">
         <v>102</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -5039,7 +5137,7 @@
       <c r="G14" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H14" s="78" t="s">
+      <c r="H14" s="58" t="s">
         <v>103</v>
       </c>
       <c r="I14" s="8" t="s">
@@ -5051,145 +5149,145 @@
       <c r="C15" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="52" t="s">
         <v>105</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="79" t="s">
+      <c r="F15" s="59" t="s">
         <v>89</v>
       </c>
       <c r="G15" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="H15" s="79" t="s">
+      <c r="H15" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="I15" s="88" t="s">
+      <c r="I15" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="81"/>
+      <c r="J15" s="61"/>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="52" t="s">
         <v>105</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="79" t="s">
+      <c r="F16" s="59" t="s">
         <v>90</v>
       </c>
       <c r="G16" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="79" t="s">
+      <c r="H16" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="I16" s="80" t="s">
+      <c r="I16" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="J16" s="81"/>
+      <c r="J16" s="61"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="81"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="61"/>
     </row>
     <row r="18" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="71"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="51"/>
       <c r="H18" s="36"/>
-      <c r="I18" s="69"/>
+      <c r="I18" s="49"/>
       <c r="J18" s="34"/>
     </row>
     <row r="19" spans="3:10" ht="15" x14ac:dyDescent="0.25">
       <c r="C19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="73" t="s">
+      <c r="D19" s="53" t="s">
         <v>106</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="79" t="s">
+      <c r="F19" s="59" t="s">
         <v>88</v>
       </c>
       <c r="G19" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="79" t="s">
+      <c r="H19" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="I19" s="80" t="s">
+      <c r="I19" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="J19" s="86"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="35"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="81"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="61"/>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="G21" s="22"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="81"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="61"/>
     </row>
     <row r="22" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G22" s="70"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="34"/>
-      <c r="I22" s="68"/>
+      <c r="I22" s="48"/>
       <c r="J22" s="34"/>
     </row>
     <row r="23" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="86"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="66"/>
     </row>
     <row r="24" spans="3:10" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="C24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="77" t="s">
+      <c r="D24" s="57" t="s">
         <v>102</v>
       </c>
       <c r="E24" s="8" t="s">
@@ -5213,110 +5311,110 @@
       <c r="C25" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="74" t="s">
+      <c r="D25" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="81"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="61"/>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C26" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="74" t="s">
+      <c r="D26" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
       <c r="G26" s="35"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="81"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="61"/>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C27" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="75" t="s">
+      <c r="D27" s="55" t="s">
         <v>116</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="79" t="s">
+      <c r="F27" s="59" t="s">
         <v>91</v>
       </c>
       <c r="G27" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="H27" s="79" t="s">
+      <c r="H27" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="I27" s="91" t="s">
+      <c r="I27" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="J27" s="81"/>
+      <c r="J27" s="61"/>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C28" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="74" t="s">
+      <c r="D28" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
       <c r="G28" s="35"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="81"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="61"/>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C29" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="74" t="s">
+      <c r="D29" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
       <c r="G29" s="35"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="81"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="61"/>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.25">
       <c r="G30" s="33"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="81"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="61"/>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.25">
       <c r="G31" s="33"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="81"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="61"/>
     </row>
     <row r="32" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
     </row>
     <row r="33" spans="3:9" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="C33" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="77" t="s">
+      <c r="D33" s="57" t="s">
         <v>102</v>
       </c>
       <c r="E33" s="8" t="s">
@@ -5339,74 +5437,74 @@
       <c r="C34" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="74" t="s">
+      <c r="D34" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="92"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="72"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C35" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="74" t="s">
+      <c r="D35" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="92"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="72"/>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C36" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="74" t="s">
+      <c r="D36" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="92"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="72"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C37" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="74" t="s">
+      <c r="D37" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="92"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="72"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C38" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D38" s="75" t="s">
+      <c r="D38" s="55" t="s">
         <v>116</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F38" s="79" t="s">
+      <c r="F38" s="59" t="s">
         <v>92</v>
       </c>
       <c r="G38" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="H38" s="79" t="s">
+      <c r="H38" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="I38" s="80" t="s">
+      <c r="I38" s="60" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5414,22 +5512,22 @@
       <c r="C39" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="75" t="s">
+      <c r="D39" s="55" t="s">
         <v>116</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F39" s="79" t="s">
+      <c r="F39" s="59" t="s">
         <v>93</v>
       </c>
       <c r="G39" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="H39" s="79" t="s">
+      <c r="H39" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="I39" s="88" t="s">
+      <c r="I39" s="68" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5437,22 +5535,22 @@
       <c r="C40" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D40" s="75" t="s">
+      <c r="D40" s="55" t="s">
         <v>116</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F40" s="79" t="s">
+      <c r="F40" s="59" t="s">
         <v>94</v>
       </c>
       <c r="G40" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="H40" s="79" t="s">
+      <c r="H40" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="I40" s="88" t="s">
+      <c r="I40" s="68" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5460,22 +5558,22 @@
       <c r="C41" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="75" t="s">
+      <c r="D41" s="55" t="s">
         <v>116</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="79" t="s">
+      <c r="F41" s="59" t="s">
         <v>95</v>
       </c>
       <c r="G41" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="H41" s="79" t="s">
+      <c r="H41" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="I41" s="88" t="s">
+      <c r="I41" s="68" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5483,22 +5581,22 @@
       <c r="C42" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D42" s="75" t="s">
+      <c r="D42" s="55" t="s">
         <v>116</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F42" s="79" t="s">
+      <c r="F42" s="59" t="s">
         <v>96</v>
       </c>
       <c r="G42" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="H42" s="79" t="s">
+      <c r="H42" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="I42" s="80" t="s">
+      <c r="I42" s="60" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5506,22 +5604,22 @@
       <c r="C43" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="75" t="s">
+      <c r="D43" s="55" t="s">
         <v>116</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F43" s="79" t="s">
+      <c r="F43" s="59" t="s">
         <v>97</v>
       </c>
       <c r="G43" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="H43" s="79" t="s">
+      <c r="H43" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="I43" s="88" t="s">
+      <c r="I43" s="68" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5529,22 +5627,22 @@
       <c r="C44" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="75" t="s">
+      <c r="D44" s="55" t="s">
         <v>116</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F44" s="79" t="s">
+      <c r="F44" s="59" t="s">
         <v>98</v>
       </c>
       <c r="G44" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="H44" s="79" t="s">
+      <c r="H44" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="I44" s="88" t="s">
+      <c r="I44" s="68" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5552,22 +5650,22 @@
       <c r="C45" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="75" t="s">
+      <c r="D45" s="55" t="s">
         <v>116</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F45" s="79" t="s">
+      <c r="F45" s="59" t="s">
         <v>99</v>
       </c>
       <c r="G45" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="H45" s="79" t="s">
+      <c r="H45" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="I45" s="88" t="s">
+      <c r="I45" s="68" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5586,7 +5684,7 @@
       <c r="C59" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D59" s="93" t="s">
+      <c r="D59" s="73" t="s">
         <v>84</v>
       </c>
       <c r="E59" s="7" t="s">
@@ -5597,7 +5695,7 @@
       <c r="C60" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D60" s="93" t="s">
+      <c r="D60" s="73" t="s">
         <v>85</v>
       </c>
       <c r="E60" s="7" t="s">
@@ -5608,7 +5706,7 @@
       <c r="C61" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D61" s="93" t="s">
+      <c r="D61" s="73" t="s">
         <v>86</v>
       </c>
       <c r="E61" s="7" t="s">
@@ -5619,7 +5717,7 @@
       <c r="C62" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D62" s="93" t="s">
+      <c r="D62" s="73" t="s">
         <v>87</v>
       </c>
       <c r="E62" s="7" t="s">
@@ -5628,14 +5726,14 @@
     </row>
     <row r="63" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="C63" s="7"/>
-      <c r="D63" s="93"/>
+      <c r="D63" s="73"/>
       <c r="E63" s="7"/>
     </row>
     <row r="64" spans="3:5" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="C64" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D64" s="93" t="s">
+      <c r="D64" s="73" t="s">
         <v>88</v>
       </c>
       <c r="E64" s="7" t="s">
@@ -5646,7 +5744,7 @@
       <c r="C65" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D65" s="93" t="s">
+      <c r="D65" s="73" t="s">
         <v>89</v>
       </c>
       <c r="E65" s="7" t="s">
@@ -5657,7 +5755,7 @@
       <c r="C66" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D66" s="93" t="s">
+      <c r="D66" s="73" t="s">
         <v>90</v>
       </c>
       <c r="E66" s="7" t="s">
@@ -5666,14 +5764,14 @@
     </row>
     <row r="67" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="C67" s="7"/>
-      <c r="D67" s="93"/>
+      <c r="D67" s="73"/>
       <c r="E67" s="7"/>
     </row>
     <row r="68" spans="3:5" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="C68" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D68" s="93" t="s">
+      <c r="D68" s="73" t="s">
         <v>91</v>
       </c>
       <c r="E68" s="7" t="s">
@@ -5682,14 +5780,14 @@
     </row>
     <row r="69" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="C69" s="7"/>
-      <c r="D69" s="93"/>
+      <c r="D69" s="73"/>
       <c r="E69" s="7"/>
     </row>
     <row r="70" spans="3:5" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="C70" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D70" s="93" t="s">
+      <c r="D70" s="73" t="s">
         <v>92</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -5700,7 +5798,7 @@
       <c r="C71" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="93" t="s">
+      <c r="D71" s="73" t="s">
         <v>93</v>
       </c>
       <c r="E71" s="7" t="s">
@@ -5711,7 +5809,7 @@
       <c r="C72" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D72" s="93" t="s">
+      <c r="D72" s="73" t="s">
         <v>94</v>
       </c>
       <c r="E72" s="7" t="s">
@@ -5722,7 +5820,7 @@
       <c r="C73" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D73" s="93" t="s">
+      <c r="D73" s="73" t="s">
         <v>95</v>
       </c>
       <c r="E73" s="7" t="s">
@@ -5733,7 +5831,7 @@
       <c r="C74" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D74" s="93" t="s">
+      <c r="D74" s="73" t="s">
         <v>96</v>
       </c>
       <c r="E74" s="7" t="s">
@@ -5744,7 +5842,7 @@
       <c r="C75" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D75" s="93" t="s">
+      <c r="D75" s="73" t="s">
         <v>97</v>
       </c>
       <c r="E75" s="7" t="s">
@@ -5755,7 +5853,7 @@
       <c r="C76" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D76" s="93" t="s">
+      <c r="D76" s="73" t="s">
         <v>98</v>
       </c>
       <c r="E76" s="7" t="s">
@@ -5766,7 +5864,7 @@
       <c r="C77" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D77" s="93" t="s">
+      <c r="D77" s="73" t="s">
         <v>99</v>
       </c>
       <c r="E77" s="7" t="s">
@@ -5790,7 +5888,7 @@
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J23"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5809,21 +5907,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59" t="s">
+      <c r="C2" s="94"/>
+      <c r="D2" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="96" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
     </row>
     <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="28" t="s">
@@ -5832,7 +5930,7 @@
       <c r="C3" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="59"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="29" t="s">
         <v>131</v>
       </c>
@@ -5853,17 +5951,17 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="64"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="92"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
@@ -5970,17 +6068,17 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="92"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
@@ -6048,17 +6146,17 @@
       </c>
     </row>
     <row r="13" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="92"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
@@ -6084,17 +6182,17 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="92"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">

--- a/Documentation/Testing/CinemaSea_Testing_v.0.3.xlsx
+++ b/Documentation/Testing/CinemaSea_Testing_v.0.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="CRUD" sheetId="1" r:id="rId1"/>
@@ -1067,6 +1067,102 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1103,6 +1199,15 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1117,111 +1222,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1544,12 +1544,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
       <c r="F3" s="42" t="s">
         <v>20</v>
       </c>
@@ -1567,11 +1567,11 @@
       <c r="B4" s="43">
         <v>1</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="44" t="s">
         <v>26</v>
       </c>
@@ -1583,11 +1583,11 @@
       <c r="B5" s="43">
         <v>2</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
       <c r="F5" s="44"/>
       <c r="G5" s="44" t="s">
         <v>26</v>
@@ -1599,11 +1599,11 @@
       <c r="B6" s="43">
         <v>3</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
       <c r="H6" s="44"/>
@@ -1615,11 +1615,11 @@
       <c r="B7" s="43">
         <v>4</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
       <c r="F7" s="44"/>
       <c r="G7" s="44"/>
       <c r="H7" s="44" t="s">
@@ -1631,11 +1631,11 @@
       <c r="B8" s="43">
         <v>5</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
       <c r="F8" s="44" t="s">
         <v>25</v>
       </c>
@@ -1653,11 +1653,11 @@
       <c r="B9" s="43">
         <v>6</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
       <c r="F9" s="44" t="s">
         <v>25</v>
       </c>
@@ -1669,11 +1669,11 @@
       <c r="B10" s="43">
         <v>7</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
       <c r="F10" s="44" t="s">
         <v>25</v>
       </c>
@@ -1685,11 +1685,11 @@
       <c r="B11" s="43">
         <v>8</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
       <c r="F11" s="44" t="s">
         <v>25</v>
       </c>
@@ -1701,11 +1701,11 @@
       <c r="B12" s="43">
         <v>9</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
       <c r="F12" s="44" t="s">
         <v>25</v>
       </c>
@@ -1723,11 +1723,11 @@
       <c r="B13" s="43">
         <v>10</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="44" t="s">
         <v>25</v>
       </c>
@@ -1745,11 +1745,11 @@
       <c r="B14" s="43">
         <v>11</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
       <c r="F14" s="44" t="s">
         <v>25</v>
       </c>
@@ -1761,11 +1761,11 @@
       <c r="B15" s="43">
         <v>12</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
       <c r="F15" s="44"/>
       <c r="G15" s="44" t="s">
         <v>25</v>
@@ -1781,11 +1781,11 @@
       <c r="B16" s="43">
         <v>13</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
       <c r="F16" s="44"/>
       <c r="G16" s="44" t="s">
         <v>27</v>
@@ -1801,11 +1801,11 @@
       <c r="B17" s="43">
         <v>14</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
       <c r="F17" s="44" t="s">
         <v>27</v>
       </c>
@@ -1817,11 +1817,11 @@
       <c r="B18" s="43">
         <v>15</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
       <c r="F18" s="44" t="s">
         <v>25</v>
       </c>
@@ -1839,11 +1839,11 @@
       <c r="B19" s="43">
         <v>16</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
       <c r="F19" s="44" t="s">
         <v>27</v>
       </c>
@@ -1855,11 +1855,11 @@
       <c r="B20" s="43">
         <v>17</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
       <c r="F20" s="44"/>
       <c r="G20" s="44"/>
       <c r="H20" s="44" t="s">
@@ -1871,11 +1871,11 @@
       <c r="B21" s="43">
         <v>18</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
       <c r="F21" s="44"/>
       <c r="G21" s="44" t="s">
         <v>27</v>
@@ -1887,11 +1887,11 @@
       <c r="B22" s="43">
         <v>19</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
       <c r="F22" s="44"/>
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
@@ -1903,11 +1903,11 @@
       <c r="B23" s="43">
         <v>20</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
       <c r="F23" s="44" t="s">
         <v>25</v>
       </c>
@@ -1917,11 +1917,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C23:E23"/>
@@ -1938,6 +1933,11 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1960,29 +1960,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:I93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="76"/>
-    <col min="4" max="4" width="4.42578125" style="76" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" style="84" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45" style="84" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.42578125" style="76" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="56"/>
+    <col min="4" max="4" width="4.42578125" style="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" style="64" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45" style="64" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.42578125" style="56" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="76"/>
+    <col min="9" max="16384" width="9.140625" style="56"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D3" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="94" t="s">
+      <c r="E3" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F3" s="94" t="s">
+      <c r="F3" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G3" s="41" t="s">
@@ -1993,16 +1993,16 @@
       </c>
     </row>
     <row r="4" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D4" s="79">
+      <c r="D4" s="59">
         <v>111</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="73" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="93" t="s">
+      <c r="F4" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="G4" s="79" t="s">
+      <c r="G4" s="59" t="s">
         <v>176</v>
       </c>
       <c r="H4" s="30" t="s">
@@ -2013,10 +2013,10 @@
       <c r="D6" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="E6" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G6" s="41" t="s">
@@ -2027,16 +2027,16 @@
       </c>
     </row>
     <row r="7" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="79">
+      <c r="D7" s="59">
         <v>112</v>
       </c>
-      <c r="E7" s="93" t="s">
+      <c r="E7" s="73" t="s">
         <v>178</v>
       </c>
-      <c r="F7" s="93" t="s">
+      <c r="F7" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="G7" s="79" t="s">
+      <c r="G7" s="59" t="s">
         <v>176</v>
       </c>
       <c r="H7" s="30" t="s">
@@ -2047,10 +2047,10 @@
       <c r="D9" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="94" t="s">
+      <c r="E9" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="94" t="s">
+      <c r="F9" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G9" s="41" t="s">
@@ -2061,16 +2061,16 @@
       </c>
     </row>
     <row r="10" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="79">
+      <c r="D10" s="59">
         <v>113</v>
       </c>
-      <c r="E10" s="93" t="s">
+      <c r="E10" s="73" t="s">
         <v>179</v>
       </c>
-      <c r="F10" s="93" t="s">
+      <c r="F10" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="G10" s="79" t="s">
+      <c r="G10" s="59" t="s">
         <v>183</v>
       </c>
       <c r="H10" s="30" t="s">
@@ -2081,10 +2081,10 @@
       <c r="D12" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="94" t="s">
+      <c r="E12" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F12" s="94" t="s">
+      <c r="F12" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G12" s="41" t="s">
@@ -2095,16 +2095,16 @@
       </c>
     </row>
     <row r="13" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D13" s="79">
+      <c r="D13" s="59">
         <v>114</v>
       </c>
-      <c r="E13" s="93" t="s">
+      <c r="E13" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="F13" s="93" t="s">
+      <c r="F13" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="G13" s="79" t="s">
+      <c r="G13" s="59" t="s">
         <v>183</v>
       </c>
       <c r="H13" s="30" t="s">
@@ -2115,10 +2115,10 @@
       <c r="D15" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="94" t="s">
+      <c r="E15" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F15" s="94" t="s">
+      <c r="F15" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G15" s="41" t="s">
@@ -2129,16 +2129,16 @@
       </c>
     </row>
     <row r="16" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D16" s="79">
+      <c r="D16" s="59">
         <v>115</v>
       </c>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="F16" s="93" t="s">
+      <c r="F16" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="G16" s="79" t="s">
+      <c r="G16" s="59" t="s">
         <v>182</v>
       </c>
       <c r="H16" s="30" t="s">
@@ -2149,10 +2149,10 @@
       <c r="D18" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="94" t="s">
+      <c r="E18" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F18" s="94" t="s">
+      <c r="F18" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G18" s="41" t="s">
@@ -2163,16 +2163,16 @@
       </c>
     </row>
     <row r="19" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D19" s="79">
+      <c r="D19" s="59">
         <v>116</v>
       </c>
-      <c r="E19" s="93" t="s">
+      <c r="E19" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="F19" s="93" t="s">
+      <c r="F19" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="G19" s="79" t="s">
+      <c r="G19" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H19" s="30" t="s">
@@ -2183,10 +2183,10 @@
       <c r="D21" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="94" t="s">
+      <c r="E21" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F21" s="94" t="s">
+      <c r="F21" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G21" s="41" t="s">
@@ -2197,16 +2197,16 @@
       </c>
     </row>
     <row r="22" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D22" s="79">
+      <c r="D22" s="59">
         <v>121</v>
       </c>
-      <c r="E22" s="93" t="s">
+      <c r="E22" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="F22" s="93" t="s">
+      <c r="F22" s="73" t="s">
         <v>202</v>
       </c>
-      <c r="G22" s="79" t="s">
+      <c r="G22" s="59" t="s">
         <v>204</v>
       </c>
       <c r="H22" s="30" t="s">
@@ -2217,10 +2217,10 @@
       <c r="D24" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="94" t="s">
+      <c r="E24" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="94" t="s">
+      <c r="F24" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G24" s="41" t="s">
@@ -2231,16 +2231,16 @@
       </c>
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D25" s="79">
+      <c r="D25" s="59">
         <v>122</v>
       </c>
-      <c r="E25" s="93" t="s">
+      <c r="E25" s="73" t="s">
         <v>198</v>
       </c>
-      <c r="F25" s="93" t="s">
+      <c r="F25" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="79" t="s">
+      <c r="G25" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H25" s="30" t="s">
@@ -2251,10 +2251,10 @@
       <c r="D27" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="94" t="s">
+      <c r="E27" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="94" t="s">
+      <c r="F27" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G27" s="41" t="s">
@@ -2265,16 +2265,16 @@
       </c>
     </row>
     <row r="28" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D28" s="79">
+      <c r="D28" s="59">
         <v>123</v>
       </c>
-      <c r="E28" s="93" t="s">
+      <c r="E28" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="F28" s="93" t="s">
+      <c r="F28" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="G28" s="79" t="s">
+      <c r="G28" s="59" t="s">
         <v>203</v>
       </c>
       <c r="H28" s="30" t="s">
@@ -2285,10 +2285,10 @@
       <c r="D30" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="94" t="s">
+      <c r="E30" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F30" s="94" t="s">
+      <c r="F30" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G30" s="41" t="s">
@@ -2299,16 +2299,16 @@
       </c>
     </row>
     <row r="31" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D31" s="79">
+      <c r="D31" s="59">
         <v>124</v>
       </c>
-      <c r="E31" s="93" t="s">
+      <c r="E31" s="73" t="s">
         <v>200</v>
       </c>
-      <c r="F31" s="93" t="s">
+      <c r="F31" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="G31" s="79" t="s">
+      <c r="G31" s="59" t="s">
         <v>201</v>
       </c>
       <c r="H31" s="30" t="s">
@@ -2316,20 +2316,20 @@
       </c>
     </row>
     <row r="32" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D32" s="89"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="89"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="69"/>
       <c r="H32" s="33"/>
     </row>
     <row r="33" spans="4:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D33" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="94" t="s">
+      <c r="E33" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F33" s="94" t="s">
+      <c r="F33" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G33" s="41" t="s">
@@ -2340,16 +2340,16 @@
       </c>
     </row>
     <row r="34" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D34" s="79">
+      <c r="D34" s="59">
         <v>131</v>
       </c>
-      <c r="E34" s="93" t="s">
+      <c r="E34" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="F34" s="93" t="s">
+      <c r="F34" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="G34" s="79" t="s">
+      <c r="G34" s="59" t="s">
         <v>176</v>
       </c>
       <c r="H34" s="30" t="s">
@@ -2360,10 +2360,10 @@
       <c r="D36" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="94" t="s">
+      <c r="E36" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F36" s="94" t="s">
+      <c r="F36" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G36" s="41" t="s">
@@ -2373,17 +2373,17 @@
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D37" s="79">
+    <row r="37" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D37" s="59">
         <v>132</v>
       </c>
-      <c r="E37" s="93" t="s">
+      <c r="E37" s="73" t="s">
         <v>206</v>
       </c>
-      <c r="F37" s="93" t="s">
+      <c r="F37" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="G37" s="79" t="s">
+      <c r="G37" s="59" t="s">
         <v>176</v>
       </c>
       <c r="H37" s="30" t="s">
@@ -2394,10 +2394,10 @@
       <c r="D39" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="94" t="s">
+      <c r="E39" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F39" s="94" t="s">
+      <c r="F39" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G39" s="41" t="s">
@@ -2407,17 +2407,17 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D40" s="79">
+    <row r="40" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D40" s="59">
         <v>133</v>
       </c>
-      <c r="E40" s="93" t="s">
+      <c r="E40" s="73" t="s">
         <v>207</v>
       </c>
-      <c r="F40" s="93" t="s">
+      <c r="F40" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="G40" s="79" t="s">
+      <c r="G40" s="59" t="s">
         <v>183</v>
       </c>
       <c r="H40" s="30" t="s">
@@ -2428,10 +2428,10 @@
       <c r="D42" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="94" t="s">
+      <c r="E42" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F42" s="94" t="s">
+      <c r="F42" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G42" s="41" t="s">
@@ -2442,16 +2442,16 @@
       </c>
     </row>
     <row r="43" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D43" s="79">
+      <c r="D43" s="59">
         <v>134</v>
       </c>
-      <c r="E43" s="93" t="s">
+      <c r="E43" s="73" t="s">
         <v>208</v>
       </c>
-      <c r="F43" s="93" t="s">
+      <c r="F43" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="G43" s="79" t="s">
+      <c r="G43" s="59" t="s">
         <v>183</v>
       </c>
       <c r="H43" s="30" t="s">
@@ -2462,10 +2462,10 @@
       <c r="D45" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="94" t="s">
+      <c r="E45" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F45" s="94" t="s">
+      <c r="F45" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G45" s="41" t="s">
@@ -2476,16 +2476,16 @@
       </c>
     </row>
     <row r="46" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D46" s="79">
+      <c r="D46" s="59">
         <v>135</v>
       </c>
-      <c r="E46" s="93" t="s">
+      <c r="E46" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="F46" s="93" t="s">
+      <c r="F46" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="G46" s="79" t="s">
+      <c r="G46" s="59" t="s">
         <v>182</v>
       </c>
       <c r="H46" s="30" t="s">
@@ -2496,10 +2496,10 @@
       <c r="D48" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="94" t="s">
+      <c r="E48" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F48" s="94" t="s">
+      <c r="F48" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G48" s="41" t="s">
@@ -2510,16 +2510,16 @@
       </c>
     </row>
     <row r="49" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D49" s="79">
+      <c r="D49" s="59">
         <v>136</v>
       </c>
-      <c r="E49" s="93" t="s">
+      <c r="E49" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="F49" s="93" t="s">
+      <c r="F49" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="G49" s="79" t="s">
+      <c r="G49" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H49" s="30" t="s">
@@ -2527,20 +2527,20 @@
       </c>
     </row>
     <row r="50" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D50" s="89"/>
-      <c r="E50" s="95"/>
-      <c r="F50" s="95"/>
-      <c r="G50" s="89"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="69"/>
       <c r="H50" s="33"/>
     </row>
     <row r="51" spans="4:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D51" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E51" s="94" t="s">
+      <c r="E51" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F51" s="94" t="s">
+      <c r="F51" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G51" s="41" t="s">
@@ -2551,16 +2551,16 @@
       </c>
     </row>
     <row r="52" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D52" s="79">
+      <c r="D52" s="59">
         <v>137</v>
       </c>
-      <c r="E52" s="93" t="s">
+      <c r="E52" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="F52" s="93" t="s">
+      <c r="F52" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="G52" s="79" t="s">
+      <c r="G52" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H52" s="30" t="s">
@@ -2568,20 +2568,20 @@
       </c>
     </row>
     <row r="53" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D53" s="89"/>
-      <c r="E53" s="95"/>
-      <c r="F53" s="95"/>
-      <c r="G53" s="89"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="69"/>
       <c r="H53" s="33"/>
     </row>
     <row r="54" spans="4:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D54" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E54" s="94" t="s">
+      <c r="E54" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F54" s="94" t="s">
+      <c r="F54" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G54" s="41" t="s">
@@ -2592,16 +2592,16 @@
       </c>
     </row>
     <row r="55" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D55" s="79">
+      <c r="D55" s="59">
         <v>138</v>
       </c>
-      <c r="E55" s="93" t="s">
+      <c r="E55" s="73" t="s">
         <v>212</v>
       </c>
-      <c r="F55" s="93" t="s">
+      <c r="F55" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="G55" s="79" t="s">
+      <c r="G55" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H55" s="30" t="s">
@@ -2609,20 +2609,20 @@
       </c>
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D56" s="89"/>
-      <c r="E56" s="95"/>
-      <c r="F56" s="95"/>
-      <c r="G56" s="89"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="69"/>
       <c r="H56" s="33"/>
     </row>
     <row r="57" spans="4:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D57" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E57" s="94" t="s">
+      <c r="E57" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F57" s="94" t="s">
+      <c r="F57" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G57" s="41" t="s">
@@ -2633,16 +2633,16 @@
       </c>
     </row>
     <row r="58" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D58" s="79">
+      <c r="D58" s="59">
         <v>141</v>
       </c>
-      <c r="E58" s="93" t="s">
+      <c r="E58" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="F58" s="93" t="s">
+      <c r="F58" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="G58" s="79" t="s">
+      <c r="G58" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H58" s="30" t="s">
@@ -2650,20 +2650,20 @@
       </c>
     </row>
     <row r="59" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D59" s="89"/>
-      <c r="E59" s="95"/>
-      <c r="F59" s="95"/>
-      <c r="G59" s="89"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="75"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="69"/>
       <c r="H59" s="33"/>
     </row>
     <row r="60" spans="4:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D60" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E60" s="94" t="s">
+      <c r="E60" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F60" s="94" t="s">
+      <c r="F60" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G60" s="41" t="s">
@@ -2674,16 +2674,16 @@
       </c>
     </row>
     <row r="61" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D61" s="79">
+      <c r="D61" s="59">
         <v>142</v>
       </c>
-      <c r="E61" s="93" t="s">
+      <c r="E61" s="73" t="s">
         <v>214</v>
       </c>
-      <c r="F61" s="93" t="s">
+      <c r="F61" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="G61" s="79" t="s">
+      <c r="G61" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H61" s="30" t="s">
@@ -2691,20 +2691,20 @@
       </c>
     </row>
     <row r="62" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D62" s="89"/>
-      <c r="E62" s="95"/>
-      <c r="F62" s="95"/>
-      <c r="G62" s="89"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="75"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="69"/>
       <c r="H62" s="33"/>
     </row>
     <row r="63" spans="4:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D63" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E63" s="94" t="s">
+      <c r="E63" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F63" s="94" t="s">
+      <c r="F63" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G63" s="41" t="s">
@@ -2715,16 +2715,16 @@
       </c>
     </row>
     <row r="64" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D64" s="79">
+      <c r="D64" s="59">
         <v>143</v>
       </c>
-      <c r="E64" s="93" t="s">
+      <c r="E64" s="73" t="s">
         <v>215</v>
       </c>
-      <c r="F64" s="93" t="s">
+      <c r="F64" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="G64" s="79" t="s">
+      <c r="G64" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H64" s="30" t="s">
@@ -2732,20 +2732,20 @@
       </c>
     </row>
     <row r="65" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D65" s="89"/>
-      <c r="E65" s="95"/>
-      <c r="F65" s="95"/>
-      <c r="G65" s="89"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="75"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="69"/>
       <c r="H65" s="33"/>
     </row>
     <row r="66" spans="4:9" ht="15" x14ac:dyDescent="0.25">
       <c r="D66" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E66" s="94" t="s">
+      <c r="E66" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F66" s="94" t="s">
+      <c r="F66" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G66" s="41" t="s">
@@ -2754,42 +2754,42 @@
       <c r="H66" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="I66" s="96"/>
+      <c r="I66" s="76"/>
     </row>
     <row r="67" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D67" s="79">
+      <c r="D67" s="59">
         <v>144</v>
       </c>
-      <c r="E67" s="93" t="s">
+      <c r="E67" s="73" t="s">
         <v>216</v>
       </c>
-      <c r="F67" s="93" t="s">
+      <c r="F67" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="G67" s="79" t="s">
+      <c r="G67" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H67" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="I67" s="96"/>
+      <c r="I67" s="76"/>
     </row>
     <row r="68" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D68" s="89"/>
-      <c r="E68" s="95"/>
-      <c r="F68" s="95"/>
-      <c r="G68" s="81"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="75"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="61"/>
       <c r="H68" s="33"/>
-      <c r="I68" s="96"/>
+      <c r="I68" s="76"/>
     </row>
     <row r="69" spans="4:9" ht="15" x14ac:dyDescent="0.25">
       <c r="D69" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E69" s="94" t="s">
+      <c r="E69" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F69" s="94" t="s">
+      <c r="F69" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G69" s="41" t="s">
@@ -2798,42 +2798,42 @@
       <c r="H69" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="I69" s="96"/>
+      <c r="I69" s="76"/>
     </row>
     <row r="70" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D70" s="79">
+      <c r="D70" s="59">
         <v>145</v>
       </c>
-      <c r="E70" s="93" t="s">
+      <c r="E70" s="73" t="s">
         <v>217</v>
       </c>
-      <c r="F70" s="93" t="s">
+      <c r="F70" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="G70" s="79" t="s">
+      <c r="G70" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H70" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="I70" s="96"/>
+      <c r="I70" s="76"/>
     </row>
     <row r="71" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D71" s="89"/>
-      <c r="E71" s="95"/>
-      <c r="F71" s="95"/>
-      <c r="G71" s="81"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="75"/>
+      <c r="F71" s="75"/>
+      <c r="G71" s="61"/>
       <c r="H71" s="33"/>
-      <c r="I71" s="96"/>
+      <c r="I71" s="76"/>
     </row>
     <row r="72" spans="4:9" ht="15" x14ac:dyDescent="0.25">
       <c r="D72" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E72" s="94" t="s">
+      <c r="E72" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F72" s="94" t="s">
+      <c r="F72" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G72" s="41" t="s">
@@ -2842,34 +2842,34 @@
       <c r="H72" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="I72" s="96"/>
+      <c r="I72" s="76"/>
     </row>
     <row r="73" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D73" s="79">
+      <c r="D73" s="59">
         <v>146</v>
       </c>
-      <c r="E73" s="93" t="s">
+      <c r="E73" s="73" t="s">
         <v>218</v>
       </c>
-      <c r="F73" s="93" t="s">
+      <c r="F73" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="G73" s="79" t="s">
+      <c r="G73" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H73" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="I73" s="96"/>
+      <c r="I73" s="76"/>
     </row>
     <row r="75" spans="4:9" ht="15" x14ac:dyDescent="0.25">
       <c r="D75" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="94" t="s">
+      <c r="E75" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F75" s="94" t="s">
+      <c r="F75" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G75" s="41" t="s">
@@ -2880,16 +2880,16 @@
       </c>
     </row>
     <row r="76" spans="4:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D76" s="79">
+      <c r="D76" s="59">
         <v>211</v>
       </c>
-      <c r="E76" s="93" t="s">
+      <c r="E76" s="73" t="s">
         <v>190</v>
       </c>
-      <c r="F76" s="93" t="s">
+      <c r="F76" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="G76" s="79" t="s">
+      <c r="G76" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H76" s="30" t="s">
@@ -2900,10 +2900,10 @@
       <c r="D78" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E78" s="94" t="s">
+      <c r="E78" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F78" s="94" t="s">
+      <c r="F78" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G78" s="41" t="s">
@@ -2914,16 +2914,16 @@
       </c>
     </row>
     <row r="79" spans="4:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D79" s="79">
+      <c r="D79" s="59">
         <v>212</v>
       </c>
-      <c r="E79" s="93" t="s">
+      <c r="E79" s="73" t="s">
         <v>191</v>
       </c>
-      <c r="F79" s="93" t="s">
+      <c r="F79" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="G79" s="79" t="s">
+      <c r="G79" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H79" s="30" t="s">
@@ -2934,10 +2934,10 @@
       <c r="D81" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E81" s="94" t="s">
+      <c r="E81" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F81" s="94" t="s">
+      <c r="F81" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G81" s="41" t="s">
@@ -2948,16 +2948,16 @@
       </c>
     </row>
     <row r="82" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D82" s="79">
+      <c r="D82" s="59">
         <v>213</v>
       </c>
-      <c r="E82" s="93" t="s">
+      <c r="E82" s="73" t="s">
         <v>190</v>
       </c>
-      <c r="F82" s="93" t="s">
+      <c r="F82" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="G82" s="79" t="s">
+      <c r="G82" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H82" s="30" t="s">
@@ -2968,10 +2968,10 @@
       <c r="D84" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E84" s="94" t="s">
+      <c r="E84" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F84" s="94" t="s">
+      <c r="F84" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G84" s="41" t="s">
@@ -2982,16 +2982,16 @@
       </c>
     </row>
     <row r="85" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D85" s="79">
+      <c r="D85" s="59">
         <v>214</v>
       </c>
-      <c r="E85" s="93" t="s">
+      <c r="E85" s="73" t="s">
         <v>191</v>
       </c>
-      <c r="F85" s="93" t="s">
+      <c r="F85" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="G85" s="79" t="s">
+      <c r="G85" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H85" s="30" t="s">
@@ -3002,10 +3002,10 @@
       <c r="D87" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E87" s="94" t="s">
+      <c r="E87" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="F87" s="94" t="s">
+      <c r="F87" s="74" t="s">
         <v>163</v>
       </c>
       <c r="G87" s="41" t="s">
@@ -3016,16 +3016,16 @@
       </c>
     </row>
     <row r="88" spans="4:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D88" s="79">
+      <c r="D88" s="59">
         <v>215</v>
       </c>
-      <c r="E88" s="93" t="s">
+      <c r="E88" s="73" t="s">
         <v>190</v>
       </c>
-      <c r="F88" s="93" t="s">
+      <c r="F88" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="G88" s="79" t="s">
+      <c r="G88" s="59" t="s">
         <v>188</v>
       </c>
       <c r="H88" s="30" t="s">
@@ -3033,24 +3033,24 @@
       </c>
     </row>
     <row r="89" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F89" s="76"/>
-      <c r="H89" s="76"/>
+      <c r="F89" s="56"/>
+      <c r="H89" s="56"/>
     </row>
     <row r="90" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F90" s="76"/>
-      <c r="H90" s="76"/>
+      <c r="F90" s="56"/>
+      <c r="H90" s="56"/>
     </row>
     <row r="91" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F91" s="76"/>
-      <c r="H91" s="76"/>
+      <c r="F91" s="56"/>
+      <c r="H91" s="56"/>
     </row>
     <row r="92" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F92" s="76"/>
-      <c r="H92" s="76"/>
+      <c r="F92" s="56"/>
+      <c r="H92" s="56"/>
     </row>
     <row r="93" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F93" s="76"/>
-      <c r="H93" s="76"/>
+      <c r="F93" s="56"/>
+      <c r="H93" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3062,8 +3062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3094,22 +3094,22 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="65">
+      <c r="B4" s="45">
         <v>1</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="45">
         <v>123</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="47">
         <v>42503</v>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       <c r="F5" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="G5" s="67">
+      <c r="G5" s="47">
         <v>42504</v>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="79" t="s">
         <v>76</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -3193,7 +3193,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="47"/>
+      <c r="B5" s="79"/>
       <c r="C5" s="4" t="s">
         <v>40</v>
       </c>
@@ -3208,7 +3208,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="47"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="4" t="s">
         <v>49</v>
       </c>
@@ -3223,7 +3223,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="47"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="4" t="s">
         <v>50</v>
       </c>
@@ -3245,7 +3245,7 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="80" t="s">
         <v>77</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -3262,7 +3262,7 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="48"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="4" t="s">
         <v>55</v>
       </c>
@@ -3277,7 +3277,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="48"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="4" t="s">
         <v>53</v>
       </c>
@@ -3323,7 +3323,7 @@
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="80" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -3340,7 +3340,7 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="48"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
@@ -3355,7 +3355,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="48"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="4" t="s">
         <v>43</v>
       </c>
@@ -3370,7 +3370,7 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="48"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="4" t="s">
         <v>44</v>
       </c>
@@ -3385,7 +3385,7 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="48"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="4" t="s">
         <v>45</v>
       </c>
@@ -3400,7 +3400,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="48"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="4" t="s">
         <v>46</v>
       </c>
@@ -3415,7 +3415,7 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="48"/>
+      <c r="B21" s="80"/>
       <c r="C21" s="4" t="s">
         <v>47</v>
       </c>
@@ -3430,7 +3430,7 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="48"/>
+      <c r="B22" s="80"/>
       <c r="C22" s="4" t="s">
         <v>48</v>
       </c>
@@ -3575,21 +3575,21 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
     </row>
     <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="8">
         <v>1</v>
       </c>
@@ -4025,11 +4025,11 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="54"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="86"/>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" s="20" t="s">
@@ -4100,11 +4100,11 @@
       <c r="C11" s="22"/>
     </row>
     <row r="12" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="86"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C13" s="20" t="s">
@@ -4167,11 +4167,11 @@
       <c r="E18" s="4"/>
     </row>
     <row r="21" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="86"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="20" t="s">
@@ -4232,11 +4232,11 @@
       <c r="E27" s="4"/>
     </row>
     <row r="30" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="53"/>
-      <c r="E30" s="54"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="86"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="20" t="s">
@@ -4334,12 +4334,12 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
     </row>
@@ -4439,12 +4439,12 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
     </row>
@@ -4527,12 +4527,12 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
     </row>
@@ -4581,12 +4581,12 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
     </row>
@@ -4827,35 +4827,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="76"/>
-    <col min="3" max="3" width="23.140625" style="76" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="84" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="76" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.42578125" style="76" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="56"/>
+    <col min="3" max="3" width="23.140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="64" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.42578125" style="56" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="59" style="76" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59" style="56" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="49.7109375" style="76" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="76"/>
+    <col min="10" max="10" width="49.7109375" style="56" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="56"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
       <c r="J3" s="34"/>
     </row>
     <row r="4" spans="3:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="57" t="s">
         <v>102</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -4867,7 +4867,7 @@
       <c r="G4" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H4" s="78" t="s">
+      <c r="H4" s="58" t="s">
         <v>103</v>
       </c>
       <c r="I4" s="8" t="s">
@@ -4878,22 +4878,22 @@
       <c r="C5" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="52" t="s">
         <v>105</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="59" t="s">
         <v>84</v>
       </c>
       <c r="G5" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="79" t="s">
+      <c r="H5" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="I5" s="80" t="s">
+      <c r="I5" s="60" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4901,133 +4901,133 @@
       <c r="C6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="52" t="s">
         <v>105</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="79" t="s">
+      <c r="F6" s="59" t="s">
         <v>85</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="H6" s="79" t="s">
+      <c r="H6" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="I6" s="80" t="s">
+      <c r="I6" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="J6" s="81"/>
+      <c r="J6" s="61"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="53" t="s">
         <v>106</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="79" t="s">
+      <c r="F7" s="59" t="s">
         <v>86</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="79" t="s">
+      <c r="H7" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="I7" s="80" t="s">
+      <c r="I7" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="J7" s="81"/>
+      <c r="J7" s="61"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="53" t="s">
         <v>106</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="79" t="s">
+      <c r="F8" s="59" t="s">
         <v>87</v>
       </c>
       <c r="G8" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="79" t="s">
+      <c r="H8" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="I8" s="80" t="s">
+      <c r="I8" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="J8" s="81"/>
+      <c r="J8" s="61"/>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="81"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="61"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
       <c r="G10" s="35"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="81"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="61"/>
     </row>
     <row r="11" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" s="22"/>
-      <c r="G11" s="70"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="34"/>
-      <c r="I11" s="68"/>
+      <c r="I11" s="48"/>
       <c r="J11" s="34"/>
     </row>
     <row r="12" spans="3:10" ht="15" x14ac:dyDescent="0.25">
       <c r="C12" s="22"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="86"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="81"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="61"/>
     </row>
     <row r="14" spans="3:10" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="57" t="s">
         <v>102</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -5039,7 +5039,7 @@
       <c r="G14" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H14" s="78" t="s">
+      <c r="H14" s="58" t="s">
         <v>103</v>
       </c>
       <c r="I14" s="8" t="s">
@@ -5051,145 +5051,145 @@
       <c r="C15" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="52" t="s">
         <v>105</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="79" t="s">
+      <c r="F15" s="59" t="s">
         <v>89</v>
       </c>
       <c r="G15" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="H15" s="79" t="s">
+      <c r="H15" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="I15" s="88" t="s">
+      <c r="I15" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="81"/>
+      <c r="J15" s="61"/>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="52" t="s">
         <v>105</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="79" t="s">
+      <c r="F16" s="59" t="s">
         <v>90</v>
       </c>
       <c r="G16" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="79" t="s">
+      <c r="H16" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="I16" s="80" t="s">
+      <c r="I16" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="J16" s="81"/>
+      <c r="J16" s="61"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="81"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="61"/>
     </row>
     <row r="18" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="71"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="51"/>
       <c r="H18" s="36"/>
-      <c r="I18" s="69"/>
+      <c r="I18" s="49"/>
       <c r="J18" s="34"/>
     </row>
     <row r="19" spans="3:10" ht="15" x14ac:dyDescent="0.25">
       <c r="C19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="73" t="s">
+      <c r="D19" s="53" t="s">
         <v>106</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="79" t="s">
+      <c r="F19" s="59" t="s">
         <v>88</v>
       </c>
       <c r="G19" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="79" t="s">
+      <c r="H19" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="I19" s="80" t="s">
+      <c r="I19" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="J19" s="86"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="35"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="81"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="61"/>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="G21" s="22"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="81"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="61"/>
     </row>
     <row r="22" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G22" s="70"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="34"/>
-      <c r="I22" s="68"/>
+      <c r="I22" s="48"/>
       <c r="J22" s="34"/>
     </row>
     <row r="23" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="86"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="66"/>
     </row>
     <row r="24" spans="3:10" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="C24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="77" t="s">
+      <c r="D24" s="57" t="s">
         <v>102</v>
       </c>
       <c r="E24" s="8" t="s">
@@ -5213,110 +5213,110 @@
       <c r="C25" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="74" t="s">
+      <c r="D25" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="81"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="61"/>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C26" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="74" t="s">
+      <c r="D26" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
       <c r="G26" s="35"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="81"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="61"/>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C27" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="75" t="s">
+      <c r="D27" s="55" t="s">
         <v>116</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="79" t="s">
+      <c r="F27" s="59" t="s">
         <v>91</v>
       </c>
       <c r="G27" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="H27" s="79" t="s">
+      <c r="H27" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="I27" s="91" t="s">
+      <c r="I27" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="J27" s="81"/>
+      <c r="J27" s="61"/>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C28" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="74" t="s">
+      <c r="D28" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
       <c r="G28" s="35"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="81"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="61"/>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C29" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="74" t="s">
+      <c r="D29" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
       <c r="G29" s="35"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="81"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="61"/>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.25">
       <c r="G30" s="33"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="81"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="61"/>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.25">
       <c r="G31" s="33"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="81"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="61"/>
     </row>
     <row r="32" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
     </row>
     <row r="33" spans="3:9" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="C33" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="77" t="s">
+      <c r="D33" s="57" t="s">
         <v>102</v>
       </c>
       <c r="E33" s="8" t="s">
@@ -5339,74 +5339,74 @@
       <c r="C34" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="74" t="s">
+      <c r="D34" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="92"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="72"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C35" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="74" t="s">
+      <c r="D35" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="92"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="72"/>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C36" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="74" t="s">
+      <c r="D36" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="92"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="72"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C37" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="74" t="s">
+      <c r="D37" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="92"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="72"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C38" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D38" s="75" t="s">
+      <c r="D38" s="55" t="s">
         <v>116</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F38" s="79" t="s">
+      <c r="F38" s="59" t="s">
         <v>92</v>
       </c>
       <c r="G38" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="H38" s="79" t="s">
+      <c r="H38" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="I38" s="80" t="s">
+      <c r="I38" s="60" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5414,22 +5414,22 @@
       <c r="C39" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="75" t="s">
+      <c r="D39" s="55" t="s">
         <v>116</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F39" s="79" t="s">
+      <c r="F39" s="59" t="s">
         <v>93</v>
       </c>
       <c r="G39" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="H39" s="79" t="s">
+      <c r="H39" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="I39" s="88" t="s">
+      <c r="I39" s="68" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5437,22 +5437,22 @@
       <c r="C40" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D40" s="75" t="s">
+      <c r="D40" s="55" t="s">
         <v>116</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F40" s="79" t="s">
+      <c r="F40" s="59" t="s">
         <v>94</v>
       </c>
       <c r="G40" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="H40" s="79" t="s">
+      <c r="H40" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="I40" s="88" t="s">
+      <c r="I40" s="68" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5460,22 +5460,22 @@
       <c r="C41" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="75" t="s">
+      <c r="D41" s="55" t="s">
         <v>116</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="79" t="s">
+      <c r="F41" s="59" t="s">
         <v>95</v>
       </c>
       <c r="G41" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="H41" s="79" t="s">
+      <c r="H41" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="I41" s="88" t="s">
+      <c r="I41" s="68" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5483,22 +5483,22 @@
       <c r="C42" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D42" s="75" t="s">
+      <c r="D42" s="55" t="s">
         <v>116</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F42" s="79" t="s">
+      <c r="F42" s="59" t="s">
         <v>96</v>
       </c>
       <c r="G42" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="H42" s="79" t="s">
+      <c r="H42" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="I42" s="80" t="s">
+      <c r="I42" s="60" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5506,22 +5506,22 @@
       <c r="C43" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="75" t="s">
+      <c r="D43" s="55" t="s">
         <v>116</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F43" s="79" t="s">
+      <c r="F43" s="59" t="s">
         <v>97</v>
       </c>
       <c r="G43" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="H43" s="79" t="s">
+      <c r="H43" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="I43" s="88" t="s">
+      <c r="I43" s="68" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5529,22 +5529,22 @@
       <c r="C44" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="75" t="s">
+      <c r="D44" s="55" t="s">
         <v>116</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F44" s="79" t="s">
+      <c r="F44" s="59" t="s">
         <v>98</v>
       </c>
       <c r="G44" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="H44" s="79" t="s">
+      <c r="H44" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="I44" s="88" t="s">
+      <c r="I44" s="68" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5552,22 +5552,22 @@
       <c r="C45" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="75" t="s">
+      <c r="D45" s="55" t="s">
         <v>116</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F45" s="79" t="s">
+      <c r="F45" s="59" t="s">
         <v>99</v>
       </c>
       <c r="G45" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="H45" s="79" t="s">
+      <c r="H45" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="I45" s="88" t="s">
+      <c r="I45" s="68" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       <c r="C59" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D59" s="93" t="s">
+      <c r="D59" s="73" t="s">
         <v>84</v>
       </c>
       <c r="E59" s="7" t="s">
@@ -5597,7 +5597,7 @@
       <c r="C60" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D60" s="93" t="s">
+      <c r="D60" s="73" t="s">
         <v>85</v>
       </c>
       <c r="E60" s="7" t="s">
@@ -5608,7 +5608,7 @@
       <c r="C61" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D61" s="93" t="s">
+      <c r="D61" s="73" t="s">
         <v>86</v>
       </c>
       <c r="E61" s="7" t="s">
@@ -5619,7 +5619,7 @@
       <c r="C62" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D62" s="93" t="s">
+      <c r="D62" s="73" t="s">
         <v>87</v>
       </c>
       <c r="E62" s="7" t="s">
@@ -5628,14 +5628,14 @@
     </row>
     <row r="63" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="C63" s="7"/>
-      <c r="D63" s="93"/>
+      <c r="D63" s="73"/>
       <c r="E63" s="7"/>
     </row>
     <row r="64" spans="3:5" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="C64" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D64" s="93" t="s">
+      <c r="D64" s="73" t="s">
         <v>88</v>
       </c>
       <c r="E64" s="7" t="s">
@@ -5646,7 +5646,7 @@
       <c r="C65" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D65" s="93" t="s">
+      <c r="D65" s="73" t="s">
         <v>89</v>
       </c>
       <c r="E65" s="7" t="s">
@@ -5657,7 +5657,7 @@
       <c r="C66" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D66" s="93" t="s">
+      <c r="D66" s="73" t="s">
         <v>90</v>
       </c>
       <c r="E66" s="7" t="s">
@@ -5666,14 +5666,14 @@
     </row>
     <row r="67" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="C67" s="7"/>
-      <c r="D67" s="93"/>
+      <c r="D67" s="73"/>
       <c r="E67" s="7"/>
     </row>
     <row r="68" spans="3:5" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="C68" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D68" s="93" t="s">
+      <c r="D68" s="73" t="s">
         <v>91</v>
       </c>
       <c r="E68" s="7" t="s">
@@ -5682,14 +5682,14 @@
     </row>
     <row r="69" spans="3:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="C69" s="7"/>
-      <c r="D69" s="93"/>
+      <c r="D69" s="73"/>
       <c r="E69" s="7"/>
     </row>
     <row r="70" spans="3:5" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="C70" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D70" s="93" t="s">
+      <c r="D70" s="73" t="s">
         <v>92</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -5700,7 +5700,7 @@
       <c r="C71" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="93" t="s">
+      <c r="D71" s="73" t="s">
         <v>93</v>
       </c>
       <c r="E71" s="7" t="s">
@@ -5711,7 +5711,7 @@
       <c r="C72" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D72" s="93" t="s">
+      <c r="D72" s="73" t="s">
         <v>94</v>
       </c>
       <c r="E72" s="7" t="s">
@@ -5722,7 +5722,7 @@
       <c r="C73" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D73" s="93" t="s">
+      <c r="D73" s="73" t="s">
         <v>95</v>
       </c>
       <c r="E73" s="7" t="s">
@@ -5733,7 +5733,7 @@
       <c r="C74" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D74" s="93" t="s">
+      <c r="D74" s="73" t="s">
         <v>96</v>
       </c>
       <c r="E74" s="7" t="s">
@@ -5744,7 +5744,7 @@
       <c r="C75" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D75" s="93" t="s">
+      <c r="D75" s="73" t="s">
         <v>97</v>
       </c>
       <c r="E75" s="7" t="s">
@@ -5755,7 +5755,7 @@
       <c r="C76" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D76" s="93" t="s">
+      <c r="D76" s="73" t="s">
         <v>98</v>
       </c>
       <c r="E76" s="7" t="s">
@@ -5766,7 +5766,7 @@
       <c r="C77" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D77" s="93" t="s">
+      <c r="D77" s="73" t="s">
         <v>99</v>
       </c>
       <c r="E77" s="7" t="s">
@@ -5809,21 +5809,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59" t="s">
+      <c r="C2" s="93"/>
+      <c r="D2" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
     </row>
     <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="28" t="s">
@@ -5832,7 +5832,7 @@
       <c r="C3" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="59"/>
+      <c r="D3" s="94"/>
       <c r="E3" s="29" t="s">
         <v>131</v>
       </c>
@@ -5853,17 +5853,17 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="64"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="91"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
@@ -5970,17 +5970,17 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="91"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
@@ -6048,17 +6048,17 @@
       </c>
     </row>
     <row r="13" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="91"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
@@ -6084,17 +6084,17 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="91"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
